--- a/public/dat/B. TECH. I SEM DEC 19.xlsx
+++ b/public/dat/B. TECH. I SEM DEC 19.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\sakshi\Study\website\Academic\Academic\public\dat\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1176" yWindow="1176" windowWidth="11520" windowHeight="7872" activeTab="3"/>
+    <workbookView xWindow="1176" yWindow="1176" windowWidth="11520" windowHeight="7872" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="C S" sheetId="16" r:id="rId1"/>
@@ -25,7 +30,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">EE!$1:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">ME!$1:$7</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="607">
   <si>
     <t>Roll No.</t>
   </si>
@@ -1865,8 +1870,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2620,15 +2625,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2647,13 +2643,25 @@
     <xf numFmtId="1" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2664,9 +2672,6 @@
     </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2686,9 +2691,107 @@
     <cellStyle name="Normal 4" xfId="1"/>
     <cellStyle name="Normal 6" xfId="2"/>
   </cellStyles>
-  <dxfs count="74">
+  <dxfs count="104">
     <dxf>
       <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2731,6 +2834,152 @@
     </dxf>
     <dxf>
       <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2751,6 +3000,8 @@
     </dxf>
     <dxf>
       <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2761,6 +3012,8 @@
     </dxf>
     <dxf>
       <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2771,6 +3024,8 @@
     </dxf>
     <dxf>
       <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2781,6 +3036,8 @@
     </dxf>
     <dxf>
       <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3069,6 +3326,108 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3539,7 +3898,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{301FFCFF-B459-46FA-87AF-8104A3FAC07F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{301FFCFF-B459-46FA-87AF-8104A3FAC07F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3585,7 +3944,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ECE-I"/>
@@ -4503,7 +4862,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4535,9 +4894,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4569,6 +4929,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4744,140 +5105,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF64"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:32" ht="22.8">
+    <row r="1" spans="1:32" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
-      <c r="B1" s="154" t="s">
+      <c r="B1" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="154"/>
-      <c r="T1" s="154"/>
-      <c r="U1" s="154"/>
-      <c r="V1" s="154"/>
-      <c r="W1" s="154"/>
-      <c r="X1" s="154"/>
-      <c r="Y1" s="154"/>
-      <c r="Z1" s="154"/>
-      <c r="AA1" s="154"/>
-      <c r="AB1" s="154"/>
-      <c r="AC1" s="154"/>
-      <c r="AD1" s="154"/>
-      <c r="AE1" s="154"/>
-      <c r="AF1" s="154"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="151"/>
+      <c r="S1" s="151"/>
+      <c r="T1" s="151"/>
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="151"/>
+      <c r="AB1" s="151"/>
+      <c r="AC1" s="151"/>
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="151"/>
     </row>
-    <row r="2" spans="1:32" ht="22.8">
+    <row r="2" spans="1:32" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="154"/>
-      <c r="T2" s="154"/>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="154"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="154"/>
-      <c r="Z2" s="154"/>
-      <c r="AA2" s="154"/>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="154"/>
-      <c r="AD2" s="154"/>
-      <c r="AE2" s="154"/>
-      <c r="AF2" s="154"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="151"/>
+      <c r="V2" s="151"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="151"/>
+      <c r="Y2" s="151"/>
+      <c r="Z2" s="151"/>
+      <c r="AA2" s="151"/>
+      <c r="AB2" s="151"/>
+      <c r="AC2" s="151"/>
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="151"/>
     </row>
-    <row r="3" spans="1:32" ht="27.6">
+    <row r="3" spans="1:32" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="152" t="s">
         <v>491</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="155"/>
-      <c r="S3" s="155"/>
-      <c r="T3" s="155"/>
-      <c r="U3" s="155"/>
-      <c r="V3" s="155"/>
-      <c r="W3" s="155"/>
-      <c r="X3" s="155"/>
-      <c r="Y3" s="155"/>
-      <c r="Z3" s="155"/>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="155"/>
-      <c r="AC3" s="155"/>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="155"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="152"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="152"/>
+      <c r="R3" s="152"/>
+      <c r="S3" s="152"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="152"/>
+      <c r="AA3" s="152"/>
+      <c r="AB3" s="152"/>
+      <c r="AC3" s="152"/>
+      <c r="AD3" s="152"/>
+      <c r="AE3" s="152"/>
+      <c r="AF3" s="152"/>
     </row>
-    <row r="4" spans="1:32" ht="183.6" customHeight="1">
-      <c r="A4" s="156" t="s">
+    <row r="4" spans="1:32" ht="183.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="153" t="s">
         <v>499</v>
       </c>
-      <c r="E4" s="158" t="s">
+      <c r="E4" s="155" t="s">
         <v>508</v>
       </c>
-      <c r="F4" s="158" t="s">
+      <c r="F4" s="155" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="16" t="s">
@@ -4898,21 +5259,21 @@
       </c>
       <c r="O4" s="150"/>
       <c r="P4" s="150"/>
-      <c r="Q4" s="151" t="s">
+      <c r="Q4" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="152"/>
-      <c r="S4" s="153"/>
+      <c r="R4" s="158"/>
+      <c r="S4" s="159"/>
       <c r="T4" s="150" t="s">
         <v>37</v>
       </c>
       <c r="U4" s="150"/>
       <c r="V4" s="150"/>
-      <c r="W4" s="151" t="s">
+      <c r="W4" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="X4" s="152"/>
-      <c r="Y4" s="153"/>
+      <c r="X4" s="158"/>
+      <c r="Y4" s="159"/>
       <c r="Z4" s="150" t="s">
         <v>598</v>
       </c>
@@ -4931,13 +5292,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="15.6">
-      <c r="A5" s="156"/>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
+    <row r="5" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="153"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
       <c r="G5" s="49"/>
       <c r="H5" s="41" t="s">
         <v>6</v>
@@ -5007,13 +5368,13 @@
       <c r="AE5" s="16"/>
       <c r="AF5" s="16"/>
     </row>
-    <row r="6" spans="1:32" ht="31.2">
-      <c r="A6" s="156"/>
-      <c r="B6" s="156"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
+    <row r="6" spans="1:32" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="153"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
       <c r="G6" s="49" t="s">
         <v>2</v>
       </c>
@@ -5097,13 +5458,13 @@
       <c r="AE6" s="17"/>
       <c r="AF6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="31.2">
-      <c r="A7" s="157"/>
-      <c r="B7" s="157"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
+    <row r="7" spans="1:32" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="154"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
       <c r="G7" s="18" t="s">
         <v>3</v>
       </c>
@@ -5163,7 +5524,7 @@
       <c r="AE7" s="20"/>
       <c r="AF7" s="20"/>
     </row>
-    <row r="8" spans="1:32" ht="54">
+    <row r="8" spans="1:32" ht="54" x14ac:dyDescent="0.25">
       <c r="A8" s="40">
         <v>1</v>
       </c>
@@ -5267,7 +5628,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="54">
+    <row r="9" spans="1:32" ht="54" x14ac:dyDescent="0.25">
       <c r="A9" s="40">
         <v>2</v>
       </c>
@@ -5369,7 +5730,7 @@
       </c>
       <c r="AF9" s="66"/>
     </row>
-    <row r="10" spans="1:32" ht="72">
+    <row r="10" spans="1:32" ht="54" x14ac:dyDescent="0.25">
       <c r="A10" s="40">
         <v>3</v>
       </c>
@@ -5473,7 +5834,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="54">
+    <row r="11" spans="1:32" ht="54" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>4</v>
       </c>
@@ -5575,7 +5936,7 @@
       </c>
       <c r="AF11" s="66"/>
     </row>
-    <row r="12" spans="1:32" ht="54">
+    <row r="12" spans="1:32" ht="54" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>5</v>
       </c>
@@ -5677,7 +6038,7 @@
       </c>
       <c r="AF12" s="66"/>
     </row>
-    <row r="13" spans="1:32" ht="54">
+    <row r="13" spans="1:32" ht="54" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>6</v>
       </c>
@@ -5779,7 +6140,7 @@
       </c>
       <c r="AF13" s="66"/>
     </row>
-    <row r="14" spans="1:32" ht="72">
+    <row r="14" spans="1:32" ht="72" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>7</v>
       </c>
@@ -5881,7 +6242,7 @@
       </c>
       <c r="AF14" s="66"/>
     </row>
-    <row r="15" spans="1:32" ht="90">
+    <row r="15" spans="1:32" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>8</v>
       </c>
@@ -5985,7 +6346,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="72">
+    <row r="16" spans="1:32" ht="72" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>9</v>
       </c>
@@ -6087,7 +6448,7 @@
       </c>
       <c r="AF16" s="66"/>
     </row>
-    <row r="17" spans="1:32" ht="36">
+    <row r="17" spans="1:32" ht="36" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>10</v>
       </c>
@@ -6191,7 +6552,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="54">
+    <row r="18" spans="1:32" ht="54" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>11</v>
       </c>
@@ -6293,7 +6654,7 @@
       </c>
       <c r="AF18" s="66"/>
     </row>
-    <row r="19" spans="1:32" ht="54">
+    <row r="19" spans="1:32" ht="54" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>12</v>
       </c>
@@ -6395,7 +6756,7 @@
       </c>
       <c r="AF19" s="66"/>
     </row>
-    <row r="20" spans="1:32" ht="36">
+    <row r="20" spans="1:32" ht="36" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>13</v>
       </c>
@@ -6497,7 +6858,7 @@
       </c>
       <c r="AF20" s="66"/>
     </row>
-    <row r="21" spans="1:32" ht="54">
+    <row r="21" spans="1:32" ht="54" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>14</v>
       </c>
@@ -6601,7 +6962,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="36">
+    <row r="22" spans="1:32" ht="36" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>15</v>
       </c>
@@ -6705,7 +7066,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="36">
+    <row r="23" spans="1:32" ht="36" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>16</v>
       </c>
@@ -6809,7 +7170,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="54">
+    <row r="24" spans="1:32" ht="54" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>17</v>
       </c>
@@ -6911,7 +7272,7 @@
       </c>
       <c r="AF24" s="66"/>
     </row>
-    <row r="25" spans="1:32" ht="36">
+    <row r="25" spans="1:32" ht="36" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>18</v>
       </c>
@@ -7013,7 +7374,7 @@
       </c>
       <c r="AF25" s="66"/>
     </row>
-    <row r="26" spans="1:32" ht="54">
+    <row r="26" spans="1:32" ht="36" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>19</v>
       </c>
@@ -7115,7 +7476,7 @@
       </c>
       <c r="AF26" s="66"/>
     </row>
-    <row r="27" spans="1:32" ht="36">
+    <row r="27" spans="1:32" ht="36" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>20</v>
       </c>
@@ -7217,7 +7578,7 @@
       </c>
       <c r="AF27" s="66"/>
     </row>
-    <row r="28" spans="1:32" ht="54">
+    <row r="28" spans="1:32" ht="54" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>21</v>
       </c>
@@ -7321,7 +7682,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="90">
+    <row r="29" spans="1:32" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>22</v>
       </c>
@@ -7423,7 +7784,7 @@
       </c>
       <c r="AF29" s="66"/>
     </row>
-    <row r="30" spans="1:32" ht="90">
+    <row r="30" spans="1:32" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>23</v>
       </c>
@@ -7525,7 +7886,7 @@
       </c>
       <c r="AF30" s="66"/>
     </row>
-    <row r="31" spans="1:32" ht="54">
+    <row r="31" spans="1:32" ht="54" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>24</v>
       </c>
@@ -7629,7 +7990,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="72">
+    <row r="32" spans="1:32" ht="72" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>25</v>
       </c>
@@ -7731,7 +8092,7 @@
       </c>
       <c r="AF32" s="66"/>
     </row>
-    <row r="33" spans="1:32" ht="72">
+    <row r="33" spans="1:32" ht="72" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>26</v>
       </c>
@@ -7833,7 +8194,7 @@
       </c>
       <c r="AF33" s="66"/>
     </row>
-    <row r="34" spans="1:32" ht="54">
+    <row r="34" spans="1:32" ht="54" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>27</v>
       </c>
@@ -7935,7 +8296,7 @@
       </c>
       <c r="AF34" s="66"/>
     </row>
-    <row r="35" spans="1:32" ht="54">
+    <row r="35" spans="1:32" ht="54" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>28</v>
       </c>
@@ -8037,7 +8398,7 @@
       </c>
       <c r="AF35" s="66"/>
     </row>
-    <row r="36" spans="1:32" ht="90">
+    <row r="36" spans="1:32" ht="72" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>29</v>
       </c>
@@ -8139,7 +8500,7 @@
       </c>
       <c r="AF36" s="66"/>
     </row>
-    <row r="37" spans="1:32" ht="54">
+    <row r="37" spans="1:32" ht="54" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>30</v>
       </c>
@@ -8241,7 +8602,7 @@
       </c>
       <c r="AF37" s="66"/>
     </row>
-    <row r="38" spans="1:32" ht="54">
+    <row r="38" spans="1:32" ht="54" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>31</v>
       </c>
@@ -8343,7 +8704,7 @@
       </c>
       <c r="AF38" s="66"/>
     </row>
-    <row r="39" spans="1:32" ht="36">
+    <row r="39" spans="1:32" ht="36" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>32</v>
       </c>
@@ -8445,7 +8806,7 @@
       </c>
       <c r="AF39" s="66"/>
     </row>
-    <row r="40" spans="1:32" ht="54">
+    <row r="40" spans="1:32" ht="54" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>33</v>
       </c>
@@ -8549,7 +8910,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="36">
+    <row r="41" spans="1:32" ht="36" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>34</v>
       </c>
@@ -8653,7 +9014,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="54">
+    <row r="42" spans="1:32" ht="54" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>35</v>
       </c>
@@ -8755,7 +9116,7 @@
       </c>
       <c r="AF42" s="66"/>
     </row>
-    <row r="43" spans="1:32" ht="54">
+    <row r="43" spans="1:32" ht="54" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>36</v>
       </c>
@@ -8857,7 +9218,7 @@
       </c>
       <c r="AF43" s="66"/>
     </row>
-    <row r="44" spans="1:32" ht="54">
+    <row r="44" spans="1:32" ht="54" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>37</v>
       </c>
@@ -8961,7 +9322,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="36">
+    <row r="45" spans="1:32" ht="36" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>38</v>
       </c>
@@ -9063,7 +9424,7 @@
       </c>
       <c r="AF45" s="66"/>
     </row>
-    <row r="46" spans="1:32" ht="54">
+    <row r="46" spans="1:32" ht="54" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>39</v>
       </c>
@@ -9165,7 +9526,7 @@
       </c>
       <c r="AF46" s="66"/>
     </row>
-    <row r="47" spans="1:32" ht="54">
+    <row r="47" spans="1:32" ht="54" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>40</v>
       </c>
@@ -9267,7 +9628,7 @@
       </c>
       <c r="AF47" s="66"/>
     </row>
-    <row r="48" spans="1:32" ht="90">
+    <row r="48" spans="1:32" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>41</v>
       </c>
@@ -9371,7 +9732,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="49" spans="1:32" ht="54">
+    <row r="49" spans="1:32" ht="54" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>42</v>
       </c>
@@ -9475,7 +9836,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="50" spans="1:32" ht="72">
+    <row r="50" spans="1:32" ht="72" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>43</v>
       </c>
@@ -9577,7 +9938,7 @@
       </c>
       <c r="AF50" s="66"/>
     </row>
-    <row r="51" spans="1:32" ht="54">
+    <row r="51" spans="1:32" ht="54" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44</v>
       </c>
@@ -9679,7 +10040,7 @@
       </c>
       <c r="AF51" s="66"/>
     </row>
-    <row r="52" spans="1:32" ht="90">
+    <row r="52" spans="1:32" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>45</v>
       </c>
@@ -9781,7 +10142,7 @@
       </c>
       <c r="AF52" s="66"/>
     </row>
-    <row r="53" spans="1:32" ht="72">
+    <row r="53" spans="1:32" ht="72" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>46</v>
       </c>
@@ -9883,7 +10244,7 @@
       </c>
       <c r="AF53" s="66"/>
     </row>
-    <row r="54" spans="1:32" ht="54">
+    <row r="54" spans="1:32" ht="54" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>47</v>
       </c>
@@ -9987,7 +10348,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="55" spans="1:32" ht="36">
+    <row r="55" spans="1:32" ht="36" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>48</v>
       </c>
@@ -10089,7 +10450,7 @@
       </c>
       <c r="AF55" s="66"/>
     </row>
-    <row r="56" spans="1:32" ht="72">
+    <row r="56" spans="1:32" ht="72" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>49</v>
       </c>
@@ -10191,7 +10552,7 @@
       </c>
       <c r="AF56" s="66"/>
     </row>
-    <row r="57" spans="1:32" ht="54">
+    <row r="57" spans="1:32" ht="54" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>50</v>
       </c>
@@ -10295,7 +10656,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="58" spans="1:32" ht="54">
+    <row r="58" spans="1:32" ht="54" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>51</v>
       </c>
@@ -10397,7 +10758,7 @@
       </c>
       <c r="AF58" s="66"/>
     </row>
-    <row r="59" spans="1:32" ht="36">
+    <row r="59" spans="1:32" ht="36" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>52</v>
       </c>
@@ -10501,7 +10862,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="60" spans="1:32" ht="54">
+    <row r="60" spans="1:32" ht="54" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>53</v>
       </c>
@@ -10603,7 +10964,7 @@
       </c>
       <c r="AF60" s="74"/>
     </row>
-    <row r="61" spans="1:32" ht="90">
+    <row r="61" spans="1:32" ht="90" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>54</v>
       </c>
@@ -10705,7 +11066,7 @@
       </c>
       <c r="AF61" s="66"/>
     </row>
-    <row r="62" spans="1:32" ht="36">
+    <row r="62" spans="1:32" ht="36" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>55</v>
       </c>
@@ -10807,7 +11168,7 @@
       </c>
       <c r="AF62" s="66"/>
     </row>
-    <row r="63" spans="1:32" ht="72">
+    <row r="63" spans="1:32" ht="72" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>56</v>
       </c>
@@ -10909,7 +11270,7 @@
       </c>
       <c r="AF63" s="66"/>
     </row>
-    <row r="64" spans="1:32" ht="54">
+    <row r="64" spans="1:32" ht="54" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>57</v>
       </c>
@@ -11033,62 +11394,62 @@
     <mergeCell ref="W4:Y4"/>
   </mergeCells>
   <conditionalFormatting sqref="Y8:Y64 AB8:AB64">
-    <cfRule type="cellIs" dxfId="73" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD8:AD64">
-    <cfRule type="cellIs" dxfId="72" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>500</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:Q64">
-    <cfRule type="cellIs" dxfId="71" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J64 M8:M64 S8:S64">
-    <cfRule type="cellIs" dxfId="70" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8:V64">
-    <cfRule type="cellIs" dxfId="69" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J64">
-    <cfRule type="cellIs" dxfId="68" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M64">
-    <cfRule type="cellIs" dxfId="67" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:P64">
-    <cfRule type="cellIs" dxfId="66" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:S64">
-    <cfRule type="cellIs" dxfId="65" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K64">
-    <cfRule type="cellIs" dxfId="64" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H64">
-    <cfRule type="cellIs" dxfId="63" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N64">
-    <cfRule type="cellIs" dxfId="62" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11097,14 +11458,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF54"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.88671875" defaultRowHeight="22.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6.88671875" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.88671875" customWidth="1"/>
     <col min="2" max="2" width="24.109375" customWidth="1"/>
@@ -11122,131 +11483,131 @@
     <col min="32" max="32" width="57.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="50" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A1" s="160" t="s">
+    <row r="1" spans="1:32" s="50" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="160"/>
-      <c r="W1" s="160"/>
-      <c r="X1" s="160"/>
-      <c r="Y1" s="160"/>
-      <c r="Z1" s="160"/>
-      <c r="AA1" s="160"/>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="160"/>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="160"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="162"/>
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="162"/>
+      <c r="T1" s="162"/>
+      <c r="U1" s="162"/>
+      <c r="V1" s="162"/>
+      <c r="W1" s="162"/>
+      <c r="X1" s="162"/>
+      <c r="Y1" s="162"/>
+      <c r="Z1" s="162"/>
+      <c r="AA1" s="162"/>
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="162"/>
+      <c r="AD1" s="162"/>
+      <c r="AE1" s="162"/>
+      <c r="AF1" s="162"/>
     </row>
-    <row r="2" spans="1:32" s="50" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A2" s="160" t="s">
+    <row r="2" spans="1:32" s="50" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="160"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="160"/>
-      <c r="U2" s="160"/>
-      <c r="V2" s="160"/>
-      <c r="W2" s="160"/>
-      <c r="X2" s="160"/>
-      <c r="Y2" s="160"/>
-      <c r="Z2" s="160"/>
-      <c r="AA2" s="160"/>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="160"/>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="160"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="162"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
+      <c r="U2" s="162"/>
+      <c r="V2" s="162"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="162"/>
+      <c r="Y2" s="162"/>
+      <c r="Z2" s="162"/>
+      <c r="AA2" s="162"/>
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="162"/>
+      <c r="AD2" s="162"/>
+      <c r="AE2" s="162"/>
+      <c r="AF2" s="162"/>
     </row>
-    <row r="3" spans="1:32" s="50" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A3" s="155" t="s">
+    <row r="3" spans="1:32" s="50" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="152" t="s">
         <v>490</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="155"/>
-      <c r="S3" s="155"/>
-      <c r="T3" s="155"/>
-      <c r="U3" s="155"/>
-      <c r="V3" s="155"/>
-      <c r="W3" s="155"/>
-      <c r="X3" s="155"/>
-      <c r="Y3" s="155"/>
-      <c r="Z3" s="155"/>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="155"/>
-      <c r="AC3" s="155"/>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="155"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="152"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="152"/>
+      <c r="R3" s="152"/>
+      <c r="S3" s="152"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="152"/>
+      <c r="AA3" s="152"/>
+      <c r="AB3" s="152"/>
+      <c r="AC3" s="152"/>
+      <c r="AD3" s="152"/>
+      <c r="AE3" s="152"/>
+      <c r="AF3" s="152"/>
     </row>
-    <row r="4" spans="1:32" ht="162.75" customHeight="1">
-      <c r="A4" s="156" t="s">
+    <row r="4" spans="1:32" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="153" t="s">
         <v>499</v>
       </c>
-      <c r="E4" s="158" t="s">
+      <c r="E4" s="155" t="s">
         <v>508</v>
       </c>
-      <c r="F4" s="158" t="s">
+      <c r="F4" s="155" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="23" t="s">
@@ -11300,13 +11661,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="47.25" customHeight="1">
-      <c r="A5" s="156"/>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
+    <row r="5" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="153"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
       <c r="G5" s="24"/>
       <c r="H5" s="7" t="s">
         <v>6</v>
@@ -11376,13 +11737,13 @@
       <c r="AE5" s="24"/>
       <c r="AF5" s="16"/>
     </row>
-    <row r="6" spans="1:32" ht="47.25" customHeight="1">
-      <c r="A6" s="156"/>
-      <c r="B6" s="156"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
+    <row r="6" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="153"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
       <c r="G6" s="52" t="s">
         <v>2</v>
       </c>
@@ -11466,13 +11827,13 @@
       <c r="AE6" s="55"/>
       <c r="AF6" s="131"/>
     </row>
-    <row r="7" spans="1:32" ht="47.25" customHeight="1">
-      <c r="A7" s="157"/>
-      <c r="B7" s="157"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
+    <row r="7" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="154"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
       <c r="G7" s="53" t="s">
         <v>3</v>
       </c>
@@ -11532,7 +11893,7 @@
       <c r="AE7" s="48"/>
       <c r="AF7" s="132"/>
     </row>
-    <row r="8" spans="1:32" ht="77.25" customHeight="1">
+    <row r="8" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="88">
         <v>1</v>
       </c>
@@ -11634,7 +11995,7 @@
       </c>
       <c r="AF8" s="66"/>
     </row>
-    <row r="9" spans="1:32" ht="77.25" customHeight="1">
+    <row r="9" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="88">
         <v>2</v>
       </c>
@@ -11736,7 +12097,7 @@
       </c>
       <c r="AF9" s="66"/>
     </row>
-    <row r="10" spans="1:32" ht="77.25" customHeight="1">
+    <row r="10" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="88">
         <v>3</v>
       </c>
@@ -11838,7 +12199,7 @@
       </c>
       <c r="AF10" s="66"/>
     </row>
-    <row r="11" spans="1:32" ht="77.25" customHeight="1">
+    <row r="11" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="88">
         <v>4</v>
       </c>
@@ -11942,7 +12303,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="77.25" customHeight="1">
+    <row r="12" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="88">
         <v>5</v>
       </c>
@@ -12046,7 +12407,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="77.25" customHeight="1">
+    <row r="13" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="88">
         <v>6</v>
       </c>
@@ -12148,7 +12509,7 @@
       </c>
       <c r="AF13" s="66"/>
     </row>
-    <row r="14" spans="1:32" ht="77.25" customHeight="1">
+    <row r="14" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="88">
         <v>7</v>
       </c>
@@ -12252,7 +12613,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="77.25" customHeight="1">
+    <row r="15" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="88">
         <v>8</v>
       </c>
@@ -12356,7 +12717,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="77.25" customHeight="1">
+    <row r="16" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="88">
         <v>9</v>
       </c>
@@ -12458,7 +12819,7 @@
       </c>
       <c r="AF16" s="66"/>
     </row>
-    <row r="17" spans="1:32" ht="77.25" customHeight="1">
+    <row r="17" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="88">
         <v>10</v>
       </c>
@@ -12560,7 +12921,7 @@
       </c>
       <c r="AF17" s="66"/>
     </row>
-    <row r="18" spans="1:32" ht="77.25" customHeight="1">
+    <row r="18" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="88">
         <v>11</v>
       </c>
@@ -12662,7 +13023,7 @@
       </c>
       <c r="AF18" s="66"/>
     </row>
-    <row r="19" spans="1:32" ht="77.25" customHeight="1">
+    <row r="19" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="88">
         <v>12</v>
       </c>
@@ -12766,7 +13127,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="77.25" customHeight="1">
+    <row r="20" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="88">
         <v>13</v>
       </c>
@@ -12870,7 +13231,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="77.25" customHeight="1">
+    <row r="21" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="88">
         <v>14</v>
       </c>
@@ -12974,7 +13335,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="77.25" customHeight="1">
+    <row r="22" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="88">
         <v>15</v>
       </c>
@@ -13076,7 +13437,7 @@
       </c>
       <c r="AF22" s="66"/>
     </row>
-    <row r="23" spans="1:32" ht="77.25" customHeight="1">
+    <row r="23" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="88">
         <v>16</v>
       </c>
@@ -13180,7 +13541,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="77.25" customHeight="1">
+    <row r="24" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="88">
         <v>17</v>
       </c>
@@ -13282,7 +13643,7 @@
       </c>
       <c r="AF24" s="66"/>
     </row>
-    <row r="25" spans="1:32" ht="77.25" customHeight="1">
+    <row r="25" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="88">
         <v>18</v>
       </c>
@@ -13384,7 +13745,7 @@
       </c>
       <c r="AF25" s="66"/>
     </row>
-    <row r="26" spans="1:32" ht="77.25" customHeight="1">
+    <row r="26" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="88">
         <v>19</v>
       </c>
@@ -13486,7 +13847,7 @@
       </c>
       <c r="AF26" s="66"/>
     </row>
-    <row r="27" spans="1:32" ht="77.25" customHeight="1">
+    <row r="27" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="88">
         <v>20</v>
       </c>
@@ -13590,7 +13951,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="77.25" customHeight="1">
+    <row r="28" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="88">
         <v>21</v>
       </c>
@@ -13692,7 +14053,7 @@
       </c>
       <c r="AF28" s="66"/>
     </row>
-    <row r="29" spans="1:32" ht="77.25" customHeight="1">
+    <row r="29" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="88">
         <v>22</v>
       </c>
@@ -13796,7 +14157,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="77.25" customHeight="1">
+    <row r="30" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="88">
         <v>23</v>
       </c>
@@ -13898,7 +14259,7 @@
       </c>
       <c r="AF30" s="66"/>
     </row>
-    <row r="31" spans="1:32" ht="77.25" customHeight="1">
+    <row r="31" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="88">
         <v>24</v>
       </c>
@@ -14000,7 +14361,7 @@
       </c>
       <c r="AF31" s="66"/>
     </row>
-    <row r="32" spans="1:32" ht="77.25" customHeight="1">
+    <row r="32" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="88">
         <v>25</v>
       </c>
@@ -14102,7 +14463,7 @@
       </c>
       <c r="AF32" s="66"/>
     </row>
-    <row r="33" spans="1:32" ht="77.25" customHeight="1">
+    <row r="33" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="88">
         <v>26</v>
       </c>
@@ -14206,7 +14567,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="77.25" customHeight="1">
+    <row r="34" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="88">
         <v>27</v>
       </c>
@@ -14308,7 +14669,7 @@
       </c>
       <c r="AF34" s="66"/>
     </row>
-    <row r="35" spans="1:32" ht="77.25" customHeight="1">
+    <row r="35" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="88">
         <v>28</v>
       </c>
@@ -14410,7 +14771,7 @@
       </c>
       <c r="AF35" s="66"/>
     </row>
-    <row r="36" spans="1:32" ht="77.25" customHeight="1">
+    <row r="36" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="88">
         <v>29</v>
       </c>
@@ -14514,7 +14875,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="77.25" customHeight="1">
+    <row r="37" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="88">
         <v>30</v>
       </c>
@@ -14618,7 +14979,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="77.25" customHeight="1">
+    <row r="38" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="88">
         <v>31</v>
       </c>
@@ -14720,7 +15081,7 @@
       </c>
       <c r="AF38" s="66"/>
     </row>
-    <row r="39" spans="1:32" ht="77.25" customHeight="1">
+    <row r="39" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="88">
         <v>32</v>
       </c>
@@ -14822,7 +15183,7 @@
       </c>
       <c r="AF39" s="66"/>
     </row>
-    <row r="40" spans="1:32" ht="77.25" customHeight="1">
+    <row r="40" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="88">
         <v>33</v>
       </c>
@@ -14924,7 +15285,7 @@
       </c>
       <c r="AF40" s="66"/>
     </row>
-    <row r="41" spans="1:32" ht="77.25" customHeight="1">
+    <row r="41" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="88">
         <v>34</v>
       </c>
@@ -15028,7 +15389,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="77.25" customHeight="1">
+    <row r="42" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="88">
         <v>35</v>
       </c>
@@ -15130,7 +15491,7 @@
       </c>
       <c r="AF42" s="66"/>
     </row>
-    <row r="43" spans="1:32" ht="77.25" customHeight="1">
+    <row r="43" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="88">
         <v>36</v>
       </c>
@@ -15234,7 +15595,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="44" spans="1:32" ht="77.25" customHeight="1">
+    <row r="44" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="88">
         <v>37</v>
       </c>
@@ -15338,7 +15699,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="77.25" customHeight="1">
+    <row r="45" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="88">
         <v>38</v>
       </c>
@@ -15440,7 +15801,7 @@
       </c>
       <c r="AF45" s="66"/>
     </row>
-    <row r="46" spans="1:32" ht="77.25" customHeight="1">
+    <row r="46" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="88">
         <v>39</v>
       </c>
@@ -15542,7 +15903,7 @@
       </c>
       <c r="AF46" s="66"/>
     </row>
-    <row r="47" spans="1:32" ht="77.25" customHeight="1">
+    <row r="47" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="88">
         <v>40</v>
       </c>
@@ -15644,7 +16005,7 @@
       </c>
       <c r="AF47" s="66"/>
     </row>
-    <row r="48" spans="1:32" ht="77.25" customHeight="1">
+    <row r="48" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="88">
         <v>41</v>
       </c>
@@ -15748,7 +16109,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="49" spans="1:32" ht="77.25" customHeight="1">
+    <row r="49" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="88">
         <v>42</v>
       </c>
@@ -15852,7 +16213,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="50" spans="1:32" ht="77.25" customHeight="1">
+    <row r="50" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="88">
         <v>43</v>
       </c>
@@ -15954,7 +16315,7 @@
       </c>
       <c r="AF50" s="66"/>
     </row>
-    <row r="51" spans="1:32" ht="22.5" customHeight="1">
+    <row r="51" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
@@ -15971,20 +16332,15 @@
       <c r="AE51" s="8"/>
       <c r="AF51" s="8"/>
     </row>
-    <row r="54" spans="1:32" ht="34.5" customHeight="1">
-      <c r="B54" s="161"/>
-      <c r="C54" s="162"/>
-      <c r="D54" s="162"/>
-      <c r="E54" s="162"/>
-      <c r="F54" s="162"/>
+    <row r="54" spans="1:32" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="160"/>
+      <c r="C54" s="161"/>
+      <c r="D54" s="161"/>
+      <c r="E54" s="161"/>
+      <c r="F54" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A2:AF2"/>
     <mergeCell ref="A3:AF3"/>
@@ -15997,69 +16353,74 @@
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
   </mergeCells>
   <conditionalFormatting sqref="Q8:Q50">
-    <cfRule type="cellIs" dxfId="61" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:S50">
-    <cfRule type="cellIs" dxfId="60" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8:T50 W8:W50">
-    <cfRule type="cellIs" dxfId="59" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8:V50">
-    <cfRule type="cellIs" dxfId="58" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8:Y50">
-    <cfRule type="cellIs" dxfId="57" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8:Z50">
-    <cfRule type="cellIs" dxfId="56" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8:AB50">
-    <cfRule type="cellIs" dxfId="55" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H50">
-    <cfRule type="cellIs" dxfId="54" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J50">
-    <cfRule type="cellIs" dxfId="53" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K50">
-    <cfRule type="cellIs" dxfId="52" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M50">
-    <cfRule type="cellIs" dxfId="51" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N50">
-    <cfRule type="cellIs" dxfId="50" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:P50">
-    <cfRule type="cellIs" dxfId="49" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16073,14 +16434,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF59"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AF48" sqref="AF48"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.44140625" defaultRowHeight="22.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6.44140625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.44140625" style="13" customWidth="1"/>
     <col min="2" max="2" width="23.5546875" style="13" customWidth="1"/>
@@ -16102,131 +16463,131 @@
     <col min="34" max="16384" width="6.44140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="57" customHeight="1">
-      <c r="A1" s="160" t="s">
+    <row r="1" spans="1:32" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="160"/>
-      <c r="W1" s="160"/>
-      <c r="X1" s="160"/>
-      <c r="Y1" s="160"/>
-      <c r="Z1" s="160"/>
-      <c r="AA1" s="160"/>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="160"/>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="160"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="162"/>
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="162"/>
+      <c r="T1" s="162"/>
+      <c r="U1" s="162"/>
+      <c r="V1" s="162"/>
+      <c r="W1" s="162"/>
+      <c r="X1" s="162"/>
+      <c r="Y1" s="162"/>
+      <c r="Z1" s="162"/>
+      <c r="AA1" s="162"/>
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="162"/>
+      <c r="AD1" s="162"/>
+      <c r="AE1" s="162"/>
+      <c r="AF1" s="162"/>
     </row>
-    <row r="2" spans="1:32" ht="57" customHeight="1">
-      <c r="A2" s="160" t="s">
+    <row r="2" spans="1:32" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="160"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="160"/>
-      <c r="U2" s="160"/>
-      <c r="V2" s="160"/>
-      <c r="W2" s="160"/>
-      <c r="X2" s="160"/>
-      <c r="Y2" s="160"/>
-      <c r="Z2" s="160"/>
-      <c r="AA2" s="160"/>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="160"/>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="160"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="162"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
+      <c r="U2" s="162"/>
+      <c r="V2" s="162"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="162"/>
+      <c r="Y2" s="162"/>
+      <c r="Z2" s="162"/>
+      <c r="AA2" s="162"/>
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="162"/>
+      <c r="AD2" s="162"/>
+      <c r="AE2" s="162"/>
+      <c r="AF2" s="162"/>
     </row>
-    <row r="3" spans="1:32" ht="57" customHeight="1">
-      <c r="A3" s="155" t="s">
+    <row r="3" spans="1:32" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="152" t="s">
         <v>489</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="155"/>
-      <c r="S3" s="155"/>
-      <c r="T3" s="155"/>
-      <c r="U3" s="155"/>
-      <c r="V3" s="155"/>
-      <c r="W3" s="155"/>
-      <c r="X3" s="155"/>
-      <c r="Y3" s="155"/>
-      <c r="Z3" s="155"/>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="155"/>
-      <c r="AC3" s="155"/>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="155"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="152"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="152"/>
+      <c r="R3" s="152"/>
+      <c r="S3" s="152"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="152"/>
+      <c r="AA3" s="152"/>
+      <c r="AB3" s="152"/>
+      <c r="AC3" s="152"/>
+      <c r="AD3" s="152"/>
+      <c r="AE3" s="152"/>
+      <c r="AF3" s="152"/>
     </row>
-    <row r="4" spans="1:32" ht="145.5" customHeight="1">
-      <c r="A4" s="156" t="s">
+    <row r="4" spans="1:32" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="153" t="s">
         <v>499</v>
       </c>
-      <c r="E4" s="158" t="s">
+      <c r="E4" s="155" t="s">
         <v>508</v>
       </c>
-      <c r="F4" s="158" t="s">
+      <c r="F4" s="155" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="52" t="s">
@@ -16247,21 +16608,21 @@
       </c>
       <c r="O4" s="150"/>
       <c r="P4" s="150"/>
-      <c r="Q4" s="151" t="s">
+      <c r="Q4" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="152"/>
-      <c r="S4" s="153"/>
+      <c r="R4" s="158"/>
+      <c r="S4" s="159"/>
       <c r="T4" s="150" t="s">
         <v>37</v>
       </c>
       <c r="U4" s="150"/>
       <c r="V4" s="150"/>
-      <c r="W4" s="151" t="s">
+      <c r="W4" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="X4" s="152"/>
-      <c r="Y4" s="153"/>
+      <c r="X4" s="158"/>
+      <c r="Y4" s="159"/>
       <c r="Z4" s="150" t="s">
         <v>55</v>
       </c>
@@ -16280,13 +16641,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="35.25" customHeight="1">
-      <c r="A5" s="156"/>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
+    <row r="5" spans="1:32" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="153"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
       <c r="G5" s="52"/>
       <c r="H5" s="41" t="s">
         <v>6</v>
@@ -16356,13 +16717,13 @@
       <c r="AE5" s="16"/>
       <c r="AF5" s="16"/>
     </row>
-    <row r="6" spans="1:32" ht="33" customHeight="1">
-      <c r="A6" s="156"/>
-      <c r="B6" s="156"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
+    <row r="6" spans="1:32" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="153"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
       <c r="G6" s="52" t="s">
         <v>2</v>
       </c>
@@ -16446,13 +16807,13 @@
       <c r="AE6" s="17"/>
       <c r="AF6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="32.25" customHeight="1">
-      <c r="A7" s="157"/>
-      <c r="B7" s="157"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
+    <row r="7" spans="1:32" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="154"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
       <c r="G7" s="53" t="s">
         <v>3</v>
       </c>
@@ -16512,7 +16873,7 @@
       <c r="AE7" s="20"/>
       <c r="AF7" s="20"/>
     </row>
-    <row r="8" spans="1:32" ht="72" customHeight="1">
+    <row r="8" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="90">
         <v>1</v>
       </c>
@@ -16614,7 +16975,7 @@
       </c>
       <c r="AF8" s="65"/>
     </row>
-    <row r="9" spans="1:32" ht="72" customHeight="1">
+    <row r="9" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="90">
         <v>2</v>
       </c>
@@ -16716,7 +17077,7 @@
       </c>
       <c r="AF9" s="65"/>
     </row>
-    <row r="10" spans="1:32" ht="72" customHeight="1">
+    <row r="10" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="90">
         <v>3</v>
       </c>
@@ -16818,7 +17179,7 @@
       </c>
       <c r="AF10" s="65"/>
     </row>
-    <row r="11" spans="1:32" ht="72" customHeight="1">
+    <row r="11" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="90">
         <v>4</v>
       </c>
@@ -16920,7 +17281,7 @@
       </c>
       <c r="AF11" s="65"/>
     </row>
-    <row r="12" spans="1:32" ht="72" customHeight="1">
+    <row r="12" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="90">
         <v>5</v>
       </c>
@@ -17022,7 +17383,7 @@
       </c>
       <c r="AF12" s="65"/>
     </row>
-    <row r="13" spans="1:32" ht="72" customHeight="1">
+    <row r="13" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="90">
         <v>6</v>
       </c>
@@ -17124,7 +17485,7 @@
       </c>
       <c r="AF13" s="65"/>
     </row>
-    <row r="14" spans="1:32" ht="72" customHeight="1">
+    <row r="14" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="90">
         <v>7</v>
       </c>
@@ -17226,7 +17587,7 @@
       </c>
       <c r="AF14" s="65"/>
     </row>
-    <row r="15" spans="1:32" ht="72" customHeight="1">
+    <row r="15" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="90">
         <v>8</v>
       </c>
@@ -17330,7 +17691,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="72" customHeight="1">
+    <row r="16" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="90">
         <v>9</v>
       </c>
@@ -17434,7 +17795,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="72" customHeight="1">
+    <row r="17" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="90">
         <v>10</v>
       </c>
@@ -17538,7 +17899,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="72" customHeight="1">
+    <row r="18" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="90">
         <v>11</v>
       </c>
@@ -17640,7 +18001,7 @@
       </c>
       <c r="AF18" s="65"/>
     </row>
-    <row r="19" spans="1:32" ht="72" customHeight="1">
+    <row r="19" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="90">
         <v>12</v>
       </c>
@@ -17742,7 +18103,7 @@
       </c>
       <c r="AF19" s="65"/>
     </row>
-    <row r="20" spans="1:32" ht="72" customHeight="1">
+    <row r="20" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="90">
         <v>13</v>
       </c>
@@ -17844,7 +18205,7 @@
       </c>
       <c r="AF20" s="65"/>
     </row>
-    <row r="21" spans="1:32" ht="72" customHeight="1">
+    <row r="21" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="90">
         <v>14</v>
       </c>
@@ -17946,7 +18307,7 @@
       </c>
       <c r="AF21" s="65"/>
     </row>
-    <row r="22" spans="1:32" ht="72" customHeight="1">
+    <row r="22" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="90">
         <v>15</v>
       </c>
@@ -18050,7 +18411,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="72" customHeight="1">
+    <row r="23" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="90">
         <v>16</v>
       </c>
@@ -18154,7 +18515,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="72" customHeight="1">
+    <row r="24" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="90">
         <v>17</v>
       </c>
@@ -18258,7 +18619,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="72" customHeight="1">
+    <row r="25" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="90">
         <v>18</v>
       </c>
@@ -18360,7 +18721,7 @@
       </c>
       <c r="AF25" s="65"/>
     </row>
-    <row r="26" spans="1:32" ht="72" customHeight="1">
+    <row r="26" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="90">
         <v>19</v>
       </c>
@@ -18464,7 +18825,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="72" customHeight="1">
+    <row r="27" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="90">
         <v>20</v>
       </c>
@@ -18566,7 +18927,7 @@
       </c>
       <c r="AF27" s="65"/>
     </row>
-    <row r="28" spans="1:32" ht="72" customHeight="1">
+    <row r="28" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="90">
         <v>21</v>
       </c>
@@ -18670,7 +19031,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="72" customHeight="1">
+    <row r="29" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="90">
         <v>22</v>
       </c>
@@ -18774,7 +19135,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="72" customHeight="1">
+    <row r="30" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="90">
         <v>23</v>
       </c>
@@ -18878,7 +19239,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="72" customHeight="1">
+    <row r="31" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="90">
         <v>24</v>
       </c>
@@ -18980,7 +19341,7 @@
       </c>
       <c r="AF31" s="65"/>
     </row>
-    <row r="32" spans="1:32" ht="72" customHeight="1">
+    <row r="32" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="90">
         <v>25</v>
       </c>
@@ -19084,7 +19445,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="72" customHeight="1">
+    <row r="33" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="90">
         <v>26</v>
       </c>
@@ -19186,7 +19547,7 @@
       </c>
       <c r="AF33" s="65"/>
     </row>
-    <row r="34" spans="1:32" ht="72" customHeight="1">
+    <row r="34" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="90">
         <v>27</v>
       </c>
@@ -19288,7 +19649,7 @@
       </c>
       <c r="AF34" s="65"/>
     </row>
-    <row r="35" spans="1:32" ht="72" customHeight="1">
+    <row r="35" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="90">
         <v>28</v>
       </c>
@@ -19390,7 +19751,7 @@
       </c>
       <c r="AF35" s="65"/>
     </row>
-    <row r="36" spans="1:32" ht="72" customHeight="1">
+    <row r="36" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="90">
         <v>29</v>
       </c>
@@ -19494,7 +19855,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="72" customHeight="1">
+    <row r="37" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="90">
         <v>30</v>
       </c>
@@ -19596,7 +19957,7 @@
       </c>
       <c r="AF37" s="65"/>
     </row>
-    <row r="38" spans="1:32" ht="72" customHeight="1">
+    <row r="38" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="90">
         <v>31</v>
       </c>
@@ -19698,7 +20059,7 @@
       </c>
       <c r="AF38" s="65"/>
     </row>
-    <row r="39" spans="1:32" ht="72" customHeight="1">
+    <row r="39" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="90">
         <v>32</v>
       </c>
@@ -19802,7 +20163,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="72" customHeight="1">
+    <row r="40" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="90">
         <v>33</v>
       </c>
@@ -19906,7 +20267,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="72" customHeight="1">
+    <row r="41" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="90">
         <v>34</v>
       </c>
@@ -20008,7 +20369,7 @@
       </c>
       <c r="AF41" s="65"/>
     </row>
-    <row r="42" spans="1:32" ht="72" customHeight="1">
+    <row r="42" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="90">
         <v>35</v>
       </c>
@@ -20110,7 +20471,7 @@
       </c>
       <c r="AF42" s="65"/>
     </row>
-    <row r="43" spans="1:32" ht="72" customHeight="1">
+    <row r="43" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="90">
         <v>36</v>
       </c>
@@ -20212,7 +20573,7 @@
       </c>
       <c r="AF43" s="65"/>
     </row>
-    <row r="44" spans="1:32" ht="72" customHeight="1">
+    <row r="44" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="90">
         <v>37</v>
       </c>
@@ -20314,7 +20675,7 @@
       </c>
       <c r="AF44" s="65"/>
     </row>
-    <row r="45" spans="1:32" ht="72" customHeight="1">
+    <row r="45" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="90">
         <v>38</v>
       </c>
@@ -20418,7 +20779,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="46" spans="1:32" ht="72" customHeight="1">
+    <row r="46" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="90">
         <v>39</v>
       </c>
@@ -20522,7 +20883,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="72" customHeight="1">
+    <row r="47" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="90">
         <v>40</v>
       </c>
@@ -20624,7 +20985,7 @@
       </c>
       <c r="AF47" s="65"/>
     </row>
-    <row r="48" spans="1:32" ht="72" customHeight="1">
+    <row r="48" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="90">
         <v>41</v>
       </c>
@@ -20728,7 +21089,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="49" spans="1:32" ht="72" customHeight="1">
+    <row r="49" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="90">
         <v>42</v>
       </c>
@@ -20830,7 +21191,7 @@
       </c>
       <c r="AF49" s="65"/>
     </row>
-    <row r="50" spans="1:32" ht="72" customHeight="1">
+    <row r="50" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="90">
         <v>43</v>
       </c>
@@ -20932,7 +21293,7 @@
       </c>
       <c r="AF50" s="65"/>
     </row>
-    <row r="51" spans="1:32" ht="72" customHeight="1">
+    <row r="51" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="90">
         <v>44</v>
       </c>
@@ -21034,7 +21395,7 @@
       </c>
       <c r="AF51" s="65"/>
     </row>
-    <row r="52" spans="1:32" ht="72" customHeight="1">
+    <row r="52" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="90">
         <v>45</v>
       </c>
@@ -21136,7 +21497,7 @@
       </c>
       <c r="AF52" s="65"/>
     </row>
-    <row r="53" spans="1:32" ht="72" customHeight="1">
+    <row r="53" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="90">
         <v>46</v>
       </c>
@@ -21240,7 +21601,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="54" spans="1:32" ht="72" customHeight="1">
+    <row r="54" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="90">
         <v>47</v>
       </c>
@@ -21342,7 +21703,7 @@
       </c>
       <c r="AF54" s="65"/>
     </row>
-    <row r="55" spans="1:32" ht="72" customHeight="1">
+    <row r="55" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="90">
         <v>48</v>
       </c>
@@ -21444,7 +21805,108 @@
       </c>
       <c r="AF55" s="65"/>
     </row>
-    <row r="59" spans="1:32" ht="22.5" customHeight="1">
+    <row r="56" spans="1:32" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="90">
+        <v>49</v>
+      </c>
+      <c r="B56" s="47">
+        <v>190090111002</v>
+      </c>
+      <c r="C56" s="47">
+        <v>190000100253</v>
+      </c>
+      <c r="D56" s="47">
+        <v>190602</v>
+      </c>
+      <c r="E56" s="44" t="s">
+        <v>502</v>
+      </c>
+      <c r="F56" s="42" t="s">
+        <v>503</v>
+      </c>
+      <c r="G56" s="91"/>
+      <c r="H56" s="60">
+        <v>71</v>
+      </c>
+      <c r="I56" s="60">
+        <v>56</v>
+      </c>
+      <c r="J56" s="62">
+        <f>SUM(H56:I56)</f>
+        <v>127</v>
+      </c>
+      <c r="K56" s="60">
+        <v>65</v>
+      </c>
+      <c r="L56" s="60">
+        <v>47</v>
+      </c>
+      <c r="M56" s="62">
+        <f>SUM(K56:L56)</f>
+        <v>112</v>
+      </c>
+      <c r="N56" s="60">
+        <v>54</v>
+      </c>
+      <c r="O56" s="67">
+        <v>36</v>
+      </c>
+      <c r="P56" s="62">
+        <f>SUM(N56:O56)</f>
+        <v>90</v>
+      </c>
+      <c r="Q56" s="60">
+        <v>46</v>
+      </c>
+      <c r="R56" s="60">
+        <v>44</v>
+      </c>
+      <c r="S56" s="62">
+        <f>SUM(Q56:R56)</f>
+        <v>90</v>
+      </c>
+      <c r="T56" s="60">
+        <v>21</v>
+      </c>
+      <c r="U56" s="60">
+        <v>20</v>
+      </c>
+      <c r="V56" s="62">
+        <f>SUM(T56:U56)</f>
+        <v>41</v>
+      </c>
+      <c r="W56" s="60">
+        <v>21</v>
+      </c>
+      <c r="X56" s="60">
+        <v>21</v>
+      </c>
+      <c r="Y56" s="62">
+        <f>SUM(W56:X56)</f>
+        <v>42</v>
+      </c>
+      <c r="Z56" s="67">
+        <v>59</v>
+      </c>
+      <c r="AA56" s="67">
+        <v>55</v>
+      </c>
+      <c r="AB56" s="62">
+        <f>SUM(Z56:AA56)</f>
+        <v>114</v>
+      </c>
+      <c r="AC56" s="69">
+        <v>45</v>
+      </c>
+      <c r="AD56" s="62">
+        <v>616</v>
+      </c>
+      <c r="AE56" s="62" t="s">
+        <v>507</v>
+      </c>
+      <c r="AF56" s="65"/>
+    </row>
+    <row r="59" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E59" s="14"/>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
@@ -21479,68 +21941,118 @@
     <mergeCell ref="C4:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="Y8:Y55 AB8:AB55">
-    <cfRule type="cellIs" dxfId="48" priority="32" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD8:AD55">
-    <cfRule type="cellIs" dxfId="47" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="39" stopIfTrue="1" operator="lessThan">
       <formula>500</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8:W55 Z8:Z55 T8:T35 T37:T42">
-    <cfRule type="cellIs" dxfId="46" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H55 K8:K55 N8:N55 Q8:Q55">
-    <cfRule type="cellIs" dxfId="45" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T43:T55">
-    <cfRule type="cellIs" dxfId="44" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8:V55">
-    <cfRule type="cellIs" dxfId="43" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R52">
-    <cfRule type="cellIs" dxfId="42" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:P55">
-    <cfRule type="cellIs" dxfId="41" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:S55">
-    <cfRule type="cellIs" dxfId="40" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J55">
-    <cfRule type="cellIs" dxfId="39" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M55">
-    <cfRule type="cellIs" dxfId="38" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I55">
-    <cfRule type="cellIs" dxfId="37" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T36">
-    <cfRule type="cellIs" dxfId="36" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y56 AB56">
+    <cfRule type="cellIs" dxfId="19" priority="10" stopIfTrue="1" operator="lessThan">
+      <formula>25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD56">
+    <cfRule type="cellIs" dxfId="17" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>500</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W56 Z56 T56">
+    <cfRule type="cellIs" dxfId="15" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56 K56 N56 Q56">
+    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V56">
+    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P56">
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="lessThan">
+      <formula>60</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S56">
+    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="lessThan">
+      <formula>80</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J56">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="lessThan">
+      <formula>80</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M56">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>80</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I56">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+      <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.43307086614173229" right="0.19685039370078741" top="0.74803149606299213" bottom="1.56" header="0.31496062992125984" footer="0.6692913385826772"/>
@@ -21552,14 +22064,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="G4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="27" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.33203125" style="28" customWidth="1"/>
     <col min="2" max="5" width="24.44140625" style="28" customWidth="1"/>
@@ -21573,43 +22085,43 @@
     <col min="33" max="16384" width="6.33203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="36" customHeight="1">
-      <c r="A1" s="163" t="s">
+    <row r="1" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="164" t="s">
         <v>488</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163"/>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
-      <c r="AF1" s="163"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="164"/>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="164"/>
+      <c r="S1" s="164"/>
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
+      <c r="Y1" s="164"/>
+      <c r="Z1" s="164"/>
+      <c r="AA1" s="164"/>
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="164"/>
+      <c r="AD1" s="164"/>
+      <c r="AE1" s="164"/>
+      <c r="AF1" s="164"/>
     </row>
-    <row r="2" spans="1:32" ht="36" customHeight="1">
+    <row r="2" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="149"/>
       <c r="B2" s="149"/>
       <c r="C2" s="149"/>
@@ -21643,26 +22155,26 @@
       <c r="AE2" s="149"/>
       <c r="AF2" s="149"/>
     </row>
-    <row r="3" spans="1:32" ht="32.25" customHeight="1">
-      <c r="A3" s="164"/>
-      <c r="B3" s="164"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
+    <row r="3" spans="1:32" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="165"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
       <c r="J3" s="30"/>
       <c r="K3" s="30"/>
       <c r="L3" s="30"/>
       <c r="M3" s="30"/>
-      <c r="N3" s="165"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="165"/>
-      <c r="S3" s="165"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="166"/>
+      <c r="Q3" s="166"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="166"/>
       <c r="T3" s="29"/>
       <c r="U3" s="29"/>
       <c r="V3" s="29"/>
@@ -21677,23 +22189,23 @@
       <c r="AE3" s="29"/>
       <c r="AF3" s="29"/>
     </row>
-    <row r="4" spans="1:32" ht="147.75" customHeight="1">
-      <c r="A4" s="156" t="s">
+    <row r="4" spans="1:32" ht="147.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="153" t="s">
         <v>499</v>
       </c>
-      <c r="E4" s="158" t="s">
+      <c r="E4" s="155" t="s">
         <v>508</v>
       </c>
-      <c r="F4" s="158" t="s">
+      <c r="F4" s="155" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="16" t="s">
@@ -21747,13 +22259,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="48.75" customHeight="1">
-      <c r="A5" s="156"/>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
+    <row r="5" spans="1:32" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="153"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
       <c r="G5" s="16"/>
       <c r="H5" s="7" t="s">
         <v>6</v>
@@ -21823,13 +22335,13 @@
       <c r="AE5" s="16"/>
       <c r="AF5" s="16"/>
     </row>
-    <row r="6" spans="1:32" ht="35.25" customHeight="1">
-      <c r="A6" s="156"/>
-      <c r="B6" s="156"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
+    <row r="6" spans="1:32" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="153"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
       <c r="G6" s="16" t="s">
         <v>2</v>
       </c>
@@ -21913,13 +22425,13 @@
       <c r="AE6" s="17"/>
       <c r="AF6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="35.25" customHeight="1">
-      <c r="A7" s="157"/>
-      <c r="B7" s="157"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
+    <row r="7" spans="1:32" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="154"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
       <c r="G7" s="27" t="s">
         <v>3</v>
       </c>
@@ -21979,7 +22491,7 @@
       <c r="AE7" s="56"/>
       <c r="AF7" s="21"/>
     </row>
-    <row r="8" spans="1:32" ht="61.5" customHeight="1">
+    <row r="8" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="88">
         <v>1</v>
       </c>
@@ -22081,7 +22593,7 @@
       </c>
       <c r="AF8" s="82"/>
     </row>
-    <row r="9" spans="1:32" ht="61.5" customHeight="1">
+    <row r="9" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="88">
         <v>2</v>
       </c>
@@ -22183,7 +22695,7 @@
       </c>
       <c r="AF9" s="66"/>
     </row>
-    <row r="10" spans="1:32" ht="61.5" customHeight="1">
+    <row r="10" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="88">
         <v>3</v>
       </c>
@@ -22287,7 +22799,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="61.5" customHeight="1">
+    <row r="11" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="88">
         <v>4</v>
       </c>
@@ -22389,7 +22901,7 @@
       </c>
       <c r="AF11" s="66"/>
     </row>
-    <row r="12" spans="1:32" ht="61.5" customHeight="1">
+    <row r="12" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="88">
         <v>5</v>
       </c>
@@ -22493,7 +23005,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="61.5" customHeight="1">
+    <row r="13" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="88">
         <v>6</v>
       </c>
@@ -22597,7 +23109,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="61.5" customHeight="1">
+    <row r="14" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="88">
         <v>7</v>
       </c>
@@ -22699,7 +23211,7 @@
       </c>
       <c r="AF14" s="66"/>
     </row>
-    <row r="15" spans="1:32" ht="61.5" customHeight="1">
+    <row r="15" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="88">
         <v>8</v>
       </c>
@@ -22801,7 +23313,7 @@
       </c>
       <c r="AF15" s="66"/>
     </row>
-    <row r="16" spans="1:32" ht="61.5" customHeight="1">
+    <row r="16" spans="1:32" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="88">
         <v>9</v>
       </c>
@@ -22903,7 +23415,7 @@
       </c>
       <c r="AF16" s="66"/>
     </row>
-    <row r="17" spans="1:32" ht="75" customHeight="1">
+    <row r="17" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="88">
         <v>10</v>
       </c>
@@ -23005,7 +23517,7 @@
       </c>
       <c r="AF17" s="66"/>
     </row>
-    <row r="18" spans="1:32" ht="75" customHeight="1">
+    <row r="18" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="88">
         <v>11</v>
       </c>
@@ -23109,7 +23621,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="75" customHeight="1">
+    <row r="19" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="88">
         <v>12</v>
       </c>
@@ -23213,7 +23725,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="75" customHeight="1">
+    <row r="20" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="88">
         <v>13</v>
       </c>
@@ -23315,7 +23827,7 @@
       </c>
       <c r="AF20" s="66"/>
     </row>
-    <row r="21" spans="1:32" ht="75" customHeight="1">
+    <row r="21" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="88">
         <v>14</v>
       </c>
@@ -23417,7 +23929,7 @@
       </c>
       <c r="AF21" s="66"/>
     </row>
-    <row r="22" spans="1:32" ht="75" customHeight="1">
+    <row r="22" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="88">
         <v>15</v>
       </c>
@@ -23519,7 +24031,7 @@
       </c>
       <c r="AF22" s="66"/>
     </row>
-    <row r="23" spans="1:32" ht="75" customHeight="1">
+    <row r="23" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="88">
         <v>16</v>
       </c>
@@ -23621,7 +24133,7 @@
       </c>
       <c r="AF23" s="66"/>
     </row>
-    <row r="24" spans="1:32" ht="75" customHeight="1">
+    <row r="24" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="88">
         <v>17</v>
       </c>
@@ -23723,7 +24235,7 @@
       </c>
       <c r="AF24" s="66"/>
     </row>
-    <row r="25" spans="1:32" ht="75" customHeight="1">
+    <row r="25" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="88">
         <v>18</v>
       </c>
@@ -23825,7 +24337,7 @@
       </c>
       <c r="AF25" s="66"/>
     </row>
-    <row r="26" spans="1:32" ht="75" customHeight="1">
+    <row r="26" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="88">
         <v>19</v>
       </c>
@@ -23927,7 +24439,7 @@
       </c>
       <c r="AF26" s="82"/>
     </row>
-    <row r="27" spans="1:32" ht="75" customHeight="1">
+    <row r="27" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="88">
         <v>20</v>
       </c>
@@ -24029,7 +24541,7 @@
       </c>
       <c r="AF27" s="66"/>
     </row>
-    <row r="28" spans="1:32" ht="75" customHeight="1">
+    <row r="28" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="88">
         <v>21</v>
       </c>
@@ -24131,7 +24643,7 @@
       </c>
       <c r="AF28" s="66"/>
     </row>
-    <row r="29" spans="1:32" ht="75" customHeight="1">
+    <row r="29" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="88">
         <v>22</v>
       </c>
@@ -24235,7 +24747,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="75" customHeight="1">
+    <row r="30" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="88">
         <v>23</v>
       </c>
@@ -24337,7 +24849,7 @@
       </c>
       <c r="AF30" s="66"/>
     </row>
-    <row r="31" spans="1:32" ht="75" customHeight="1">
+    <row r="31" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="88">
         <v>24</v>
       </c>
@@ -24439,7 +24951,7 @@
       </c>
       <c r="AF31" s="66"/>
     </row>
-    <row r="32" spans="1:32" ht="75" customHeight="1">
+    <row r="32" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="88">
         <v>25</v>
       </c>
@@ -24541,7 +25053,7 @@
       </c>
       <c r="AF32" s="82"/>
     </row>
-    <row r="33" spans="1:32" ht="75" customHeight="1">
+    <row r="33" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="88">
         <v>26</v>
       </c>
@@ -24643,7 +25155,7 @@
       </c>
       <c r="AF33" s="66"/>
     </row>
-    <row r="34" spans="1:32" ht="75" customHeight="1">
+    <row r="34" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="88">
         <v>27</v>
       </c>
@@ -24747,7 +25259,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="75" customHeight="1">
+    <row r="35" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="88">
         <v>28</v>
       </c>
@@ -24851,7 +25363,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="75" customHeight="1">
+    <row r="36" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="88">
         <v>29</v>
       </c>
@@ -24953,7 +25465,7 @@
       </c>
       <c r="AF36" s="66"/>
     </row>
-    <row r="37" spans="1:32" ht="75" customHeight="1">
+    <row r="37" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="88">
         <v>30</v>
       </c>
@@ -25057,7 +25569,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="75" customHeight="1">
+    <row r="38" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="88">
         <v>31</v>
       </c>
@@ -25159,7 +25671,7 @@
       </c>
       <c r="AF38" s="66"/>
     </row>
-    <row r="39" spans="1:32" ht="75" customHeight="1">
+    <row r="39" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="88">
         <v>32</v>
       </c>
@@ -25261,7 +25773,7 @@
       </c>
       <c r="AF39" s="66"/>
     </row>
-    <row r="40" spans="1:32" ht="75" customHeight="1">
+    <row r="40" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="88">
         <v>33</v>
       </c>
@@ -25363,7 +25875,7 @@
       </c>
       <c r="AF40" s="82"/>
     </row>
-    <row r="41" spans="1:32" ht="75" customHeight="1">
+    <row r="41" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="88">
         <v>34</v>
       </c>
@@ -25465,7 +25977,7 @@
       </c>
       <c r="AF41" s="66"/>
     </row>
-    <row r="42" spans="1:32" ht="75" customHeight="1">
+    <row r="42" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="88">
         <v>35</v>
       </c>
@@ -25567,7 +26079,7 @@
       </c>
       <c r="AF42" s="66"/>
     </row>
-    <row r="43" spans="1:32" ht="75" customHeight="1">
+    <row r="43" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="88">
         <v>36</v>
       </c>
@@ -25669,7 +26181,7 @@
       </c>
       <c r="AF43" s="66"/>
     </row>
-    <row r="44" spans="1:32" ht="75" customHeight="1">
+    <row r="44" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="88">
         <v>37</v>
       </c>
@@ -25771,7 +26283,7 @@
       </c>
       <c r="AF44" s="66"/>
     </row>
-    <row r="45" spans="1:32" ht="75" customHeight="1">
+    <row r="45" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="88">
         <v>38</v>
       </c>
@@ -25873,7 +26385,7 @@
       </c>
       <c r="AF45" s="82"/>
     </row>
-    <row r="46" spans="1:32" ht="75" customHeight="1">
+    <row r="46" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="88">
         <v>39</v>
       </c>
@@ -25975,7 +26487,7 @@
       </c>
       <c r="AF46" s="66"/>
     </row>
-    <row r="47" spans="1:32" ht="75" customHeight="1">
+    <row r="47" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="88">
         <v>40</v>
       </c>
@@ -26077,7 +26589,7 @@
       </c>
       <c r="AF47" s="66"/>
     </row>
-    <row r="48" spans="1:32" ht="75" customHeight="1">
+    <row r="48" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="88">
         <v>41</v>
       </c>
@@ -26179,7 +26691,7 @@
       </c>
       <c r="AF48" s="66"/>
     </row>
-    <row r="49" spans="1:32" ht="75" customHeight="1">
+    <row r="49" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="88">
         <v>42</v>
       </c>
@@ -26281,7 +26793,7 @@
       </c>
       <c r="AF49" s="66"/>
     </row>
-    <row r="50" spans="1:32" ht="75" customHeight="1">
+    <row r="50" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="88">
         <v>43</v>
       </c>
@@ -26383,7 +26895,7 @@
       </c>
       <c r="AF50" s="66"/>
     </row>
-    <row r="51" spans="1:32" ht="75" customHeight="1">
+    <row r="51" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="88">
         <v>44</v>
       </c>
@@ -26485,7 +26997,7 @@
       </c>
       <c r="AF51" s="66"/>
     </row>
-    <row r="52" spans="1:32" ht="75" customHeight="1">
+    <row r="52" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="88">
         <v>45</v>
       </c>
@@ -26587,7 +27099,7 @@
       </c>
       <c r="AF52" s="66"/>
     </row>
-    <row r="53" spans="1:32" ht="75" customHeight="1">
+    <row r="53" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="88">
         <v>46</v>
       </c>
@@ -26689,7 +27201,7 @@
       </c>
       <c r="AF53" s="66"/>
     </row>
-    <row r="54" spans="1:32" ht="75" customHeight="1">
+    <row r="54" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="88">
         <v>47</v>
       </c>
@@ -26791,7 +27303,7 @@
       </c>
       <c r="AF54" s="66"/>
     </row>
-    <row r="55" spans="1:32" ht="75" customHeight="1">
+    <row r="55" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="88">
         <v>48</v>
       </c>
@@ -26893,7 +27405,7 @@
       </c>
       <c r="AF55" s="82"/>
     </row>
-    <row r="56" spans="1:32" ht="75" customHeight="1">
+    <row r="56" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="88">
         <v>49</v>
       </c>
@@ -26995,7 +27507,7 @@
       </c>
       <c r="AF56" s="66"/>
     </row>
-    <row r="57" spans="1:32" ht="75" customHeight="1">
+    <row r="57" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="88">
         <v>50</v>
       </c>
@@ -27097,7 +27609,7 @@
       </c>
       <c r="AF57" s="66"/>
     </row>
-    <row r="58" spans="1:32" ht="75" customHeight="1">
+    <row r="58" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="88">
         <v>51</v>
       </c>
@@ -27199,7 +27711,7 @@
       </c>
       <c r="AF58" s="82"/>
     </row>
-    <row r="59" spans="1:32" ht="75" customHeight="1">
+    <row r="59" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="88">
         <v>52</v>
       </c>
@@ -27301,7 +27813,7 @@
       </c>
       <c r="AF59" s="66"/>
     </row>
-    <row r="60" spans="1:32" ht="75" customHeight="1">
+    <row r="60" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="88">
         <v>53</v>
       </c>
@@ -27403,7 +27915,7 @@
       </c>
       <c r="AF60" s="82"/>
     </row>
-    <row r="61" spans="1:32" ht="75" customHeight="1">
+    <row r="61" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="88">
         <v>54</v>
       </c>
@@ -27505,7 +28017,7 @@
       </c>
       <c r="AF61" s="66"/>
     </row>
-    <row r="62" spans="1:32" ht="75" customHeight="1">
+    <row r="62" spans="1:32" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="88">
         <v>55</v>
       </c>
@@ -27607,23 +28119,15 @@
       </c>
       <c r="AF62" s="66"/>
     </row>
-    <row r="64" spans="1:32" ht="37.5" customHeight="1">
-      <c r="B64" s="166"/>
-      <c r="C64" s="166"/>
-      <c r="D64" s="166"/>
-      <c r="E64" s="166"/>
-      <c r="F64" s="166"/>
+    <row r="64" spans="1:32" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="163"/>
+      <c r="C64" s="163"/>
+      <c r="D64" s="163"/>
+      <c r="E64" s="163"/>
+      <c r="F64" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="N3:S3"/>
@@ -27633,54 +28137,62 @@
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="C4:C7"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J62 M8:M62">
-    <cfRule type="cellIs" dxfId="9" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N62 S8:S62">
-    <cfRule type="cellIs" dxfId="8" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:Q62">
-    <cfRule type="cellIs" dxfId="7" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8:T62 W8:W62">
-    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8:V62 Y8:Y62">
-    <cfRule type="cellIs" dxfId="5" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8:Z62">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8:AB62">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H62">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:K62">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:P62">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27696,14 +28208,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="AF11" sqref="AF11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="6" width="21.88671875" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" customWidth="1"/>
@@ -27712,137 +28224,137 @@
     <col min="35" max="35" width="54.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="63" customHeight="1">
-      <c r="A1" s="154" t="s">
+    <row r="1" spans="1:35" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="154"/>
-      <c r="T1" s="154"/>
-      <c r="U1" s="154"/>
-      <c r="V1" s="154"/>
-      <c r="W1" s="154"/>
-      <c r="X1" s="154"/>
-      <c r="Y1" s="154"/>
-      <c r="Z1" s="154"/>
-      <c r="AA1" s="154"/>
-      <c r="AB1" s="154"/>
-      <c r="AC1" s="154"/>
-      <c r="AD1" s="154"/>
-      <c r="AE1" s="154"/>
-      <c r="AF1" s="154"/>
-      <c r="AG1" s="154"/>
-      <c r="AH1" s="154"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="151"/>
+      <c r="S1" s="151"/>
+      <c r="T1" s="151"/>
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="151"/>
+      <c r="Z1" s="151"/>
+      <c r="AA1" s="151"/>
+      <c r="AB1" s="151"/>
+      <c r="AC1" s="151"/>
+      <c r="AD1" s="151"/>
+      <c r="AE1" s="151"/>
+      <c r="AF1" s="151"/>
+      <c r="AG1" s="151"/>
+      <c r="AH1" s="151"/>
     </row>
-    <row r="2" spans="1:35" ht="63" customHeight="1">
-      <c r="A2" s="154" t="s">
+    <row r="2" spans="1:35" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="151" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="154"/>
-      <c r="T2" s="154"/>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="154"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="154"/>
-      <c r="Z2" s="154"/>
-      <c r="AA2" s="154"/>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="154"/>
-      <c r="AD2" s="154"/>
-      <c r="AE2" s="154"/>
-      <c r="AF2" s="154"/>
-      <c r="AG2" s="154"/>
-      <c r="AH2" s="154"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="151"/>
+      <c r="V2" s="151"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="151"/>
+      <c r="Y2" s="151"/>
+      <c r="Z2" s="151"/>
+      <c r="AA2" s="151"/>
+      <c r="AB2" s="151"/>
+      <c r="AC2" s="151"/>
+      <c r="AD2" s="151"/>
+      <c r="AE2" s="151"/>
+      <c r="AF2" s="151"/>
+      <c r="AG2" s="151"/>
+      <c r="AH2" s="151"/>
     </row>
-    <row r="3" spans="1:35" ht="63" customHeight="1">
-      <c r="A3" s="155" t="s">
+    <row r="3" spans="1:35" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="152" t="s">
         <v>487</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="155"/>
-      <c r="S3" s="155"/>
-      <c r="T3" s="155"/>
-      <c r="U3" s="155"/>
-      <c r="V3" s="155"/>
-      <c r="W3" s="155"/>
-      <c r="X3" s="155"/>
-      <c r="Y3" s="155"/>
-      <c r="Z3" s="155"/>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="155"/>
-      <c r="AC3" s="155"/>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="155"/>
-      <c r="AG3" s="155"/>
-      <c r="AH3" s="155"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="152"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="152"/>
+      <c r="R3" s="152"/>
+      <c r="S3" s="152"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="152"/>
+      <c r="AA3" s="152"/>
+      <c r="AB3" s="152"/>
+      <c r="AC3" s="152"/>
+      <c r="AD3" s="152"/>
+      <c r="AE3" s="152"/>
+      <c r="AF3" s="152"/>
+      <c r="AG3" s="152"/>
+      <c r="AH3" s="152"/>
     </row>
-    <row r="4" spans="1:35" ht="121.5" customHeight="1">
-      <c r="A4" s="156" t="s">
+    <row r="4" spans="1:35" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="153" t="s">
         <v>499</v>
       </c>
-      <c r="E4" s="158" t="s">
+      <c r="E4" s="155" t="s">
         <v>508</v>
       </c>
-      <c r="F4" s="158" t="s">
+      <c r="F4" s="155" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -27863,11 +28375,11 @@
       </c>
       <c r="O4" s="150"/>
       <c r="P4" s="150"/>
-      <c r="Q4" s="151" t="s">
+      <c r="Q4" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="152"/>
-      <c r="S4" s="153"/>
+      <c r="R4" s="158"/>
+      <c r="S4" s="159"/>
       <c r="T4" s="150" t="s">
         <v>506</v>
       </c>
@@ -27878,11 +28390,11 @@
       </c>
       <c r="X4" s="150"/>
       <c r="Y4" s="150"/>
-      <c r="Z4" s="151" t="s">
+      <c r="Z4" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="AA4" s="152"/>
-      <c r="AB4" s="153"/>
+      <c r="AA4" s="158"/>
+      <c r="AB4" s="159"/>
       <c r="AC4" s="150" t="s">
         <v>498</v>
       </c>
@@ -27901,13 +28413,13 @@
         <v>595</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="39.75" customHeight="1">
-      <c r="A5" s="156"/>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
+    <row r="5" spans="1:35" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="153"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
       <c r="G5" s="2"/>
       <c r="H5" s="41" t="s">
         <v>6</v>
@@ -27986,13 +28498,13 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="134"/>
     </row>
-    <row r="6" spans="1:35" ht="55.5" customHeight="1">
-      <c r="A6" s="156"/>
-      <c r="B6" s="156"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
+    <row r="6" spans="1:35" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="153"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
       <c r="G6" s="10" t="s">
         <v>2</v>
       </c>
@@ -28086,13 +28598,13 @@
       <c r="AH6" s="4"/>
       <c r="AI6" s="86"/>
     </row>
-    <row r="7" spans="1:35" ht="55.5" customHeight="1">
-      <c r="A7" s="157"/>
-      <c r="B7" s="157"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
+    <row r="7" spans="1:35" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="154"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
       <c r="G7" s="135" t="s">
         <v>3</v>
       </c>
@@ -28159,7 +28671,7 @@
       <c r="AH7" s="6"/>
       <c r="AI7" s="144"/>
     </row>
-    <row r="8" spans="1:35" ht="76.5" customHeight="1">
+    <row r="8" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="61">
         <v>1</v>
       </c>
@@ -28271,7 +28783,7 @@
       </c>
       <c r="AI8" s="144"/>
     </row>
-    <row r="9" spans="1:35" ht="76.5" customHeight="1">
+    <row r="9" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="125">
         <v>2</v>
       </c>
@@ -28383,7 +28895,7 @@
       </c>
       <c r="AI9" s="144"/>
     </row>
-    <row r="10" spans="1:35" ht="76.5" customHeight="1">
+    <row r="10" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="61">
         <v>3</v>
       </c>
@@ -28497,7 +29009,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="76.5" customHeight="1">
+    <row r="11" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="125">
         <v>4</v>
       </c>
@@ -28609,7 +29121,7 @@
       </c>
       <c r="AI11" s="145"/>
     </row>
-    <row r="12" spans="1:35" ht="76.5" customHeight="1">
+    <row r="12" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="61">
         <v>5</v>
       </c>
@@ -28723,7 +29235,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="76.5" customHeight="1">
+    <row r="13" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="125">
         <v>6</v>
       </c>
@@ -28837,7 +29349,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="76.5" customHeight="1">
+    <row r="14" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="61">
         <v>7</v>
       </c>
@@ -28949,7 +29461,7 @@
       </c>
       <c r="AI14" s="145"/>
     </row>
-    <row r="15" spans="1:35" ht="76.5" customHeight="1">
+    <row r="15" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="125">
         <v>8</v>
       </c>
@@ -29061,7 +29573,7 @@
       </c>
       <c r="AI15" s="145"/>
     </row>
-    <row r="16" spans="1:35" ht="76.5" customHeight="1">
+    <row r="16" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="61">
         <v>9</v>
       </c>
@@ -29173,7 +29685,7 @@
       </c>
       <c r="AI16" s="145"/>
     </row>
-    <row r="17" spans="1:35" ht="76.5" customHeight="1">
+    <row r="17" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="125">
         <v>10</v>
       </c>
@@ -29285,7 +29797,7 @@
       </c>
       <c r="AI17" s="145"/>
     </row>
-    <row r="18" spans="1:35" ht="76.5" customHeight="1">
+    <row r="18" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="61">
         <v>11</v>
       </c>
@@ -29397,7 +29909,7 @@
       </c>
       <c r="AI18" s="145"/>
     </row>
-    <row r="19" spans="1:35" ht="76.5" customHeight="1">
+    <row r="19" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="125">
         <v>12</v>
       </c>
@@ -29511,7 +30023,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="76.5" customHeight="1">
+    <row r="20" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="61">
         <v>13</v>
       </c>
@@ -29625,7 +30137,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="76.5" customHeight="1">
+    <row r="21" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="125">
         <v>14</v>
       </c>
@@ -29739,7 +30251,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="76.5" customHeight="1">
+    <row r="22" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="61">
         <v>15</v>
       </c>
@@ -29853,7 +30365,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="76.5" customHeight="1">
+    <row r="23" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="125">
         <v>16</v>
       </c>
@@ -29965,7 +30477,7 @@
       </c>
       <c r="AI23" s="145"/>
     </row>
-    <row r="24" spans="1:35" ht="76.5" customHeight="1">
+    <row r="24" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="61">
         <v>17</v>
       </c>
@@ -30079,7 +30591,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="76.5" customHeight="1">
+    <row r="25" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="125">
         <v>18</v>
       </c>
@@ -30191,7 +30703,7 @@
       </c>
       <c r="AI25" s="145"/>
     </row>
-    <row r="26" spans="1:35" ht="76.5" customHeight="1">
+    <row r="26" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="61">
         <v>19</v>
       </c>
@@ -30305,7 +30817,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="76.5" customHeight="1">
+    <row r="27" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="125">
         <v>20</v>
       </c>
@@ -30417,7 +30929,7 @@
       </c>
       <c r="AI27" s="145"/>
     </row>
-    <row r="28" spans="1:35" ht="76.5" customHeight="1">
+    <row r="28" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="61">
         <v>21</v>
       </c>
@@ -30531,7 +31043,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="76.5" customHeight="1">
+    <row r="29" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="125">
         <v>22</v>
       </c>
@@ -30643,7 +31155,7 @@
       </c>
       <c r="AI29" s="145"/>
     </row>
-    <row r="30" spans="1:35" ht="76.5" customHeight="1">
+    <row r="30" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="61">
         <v>23</v>
       </c>
@@ -30755,7 +31267,7 @@
       </c>
       <c r="AI30" s="145"/>
     </row>
-    <row r="31" spans="1:35" ht="76.5" customHeight="1">
+    <row r="31" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="125">
         <v>24</v>
       </c>
@@ -30869,7 +31381,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="76.5" customHeight="1">
+    <row r="32" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="61">
         <v>25</v>
       </c>
@@ -30981,7 +31493,7 @@
       </c>
       <c r="AI32" s="145"/>
     </row>
-    <row r="33" spans="1:35" ht="76.5" customHeight="1">
+    <row r="33" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="125">
         <v>26</v>
       </c>
@@ -31093,7 +31605,7 @@
       </c>
       <c r="AI33" s="145"/>
     </row>
-    <row r="34" spans="1:35" ht="76.5" customHeight="1">
+    <row r="34" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="61">
         <v>27</v>
       </c>
@@ -31205,7 +31717,7 @@
       </c>
       <c r="AI34" s="145"/>
     </row>
-    <row r="35" spans="1:35" ht="76.5" customHeight="1">
+    <row r="35" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="125">
         <v>28</v>
       </c>
@@ -31319,7 +31831,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="76.5" customHeight="1">
+    <row r="36" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="61">
         <v>29</v>
       </c>
@@ -31433,7 +31945,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="76.5" customHeight="1">
+    <row r="37" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="125">
         <v>30</v>
       </c>
@@ -31545,7 +32057,7 @@
       </c>
       <c r="AI37" s="145"/>
     </row>
-    <row r="38" spans="1:35" ht="76.5" customHeight="1">
+    <row r="38" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="61">
         <v>31</v>
       </c>
@@ -31657,7 +32169,7 @@
       </c>
       <c r="AI38" s="145"/>
     </row>
-    <row r="39" spans="1:35" ht="76.5" customHeight="1">
+    <row r="39" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="125">
         <v>32</v>
       </c>
@@ -31771,7 +32283,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="40" spans="1:35" ht="76.5" customHeight="1">
+    <row r="40" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="61">
         <v>33</v>
       </c>
@@ -31883,7 +32395,7 @@
       </c>
       <c r="AI40" s="145"/>
     </row>
-    <row r="41" spans="1:35" ht="76.5" customHeight="1">
+    <row r="41" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="125">
         <v>34</v>
       </c>
@@ -31997,7 +32509,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="42" spans="1:35" ht="76.5" customHeight="1">
+    <row r="42" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="61">
         <v>35</v>
       </c>
@@ -32111,7 +32623,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="43" spans="1:35" ht="76.5" customHeight="1">
+    <row r="43" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="125">
         <v>36</v>
       </c>
@@ -32223,7 +32735,7 @@
       </c>
       <c r="AI43" s="145"/>
     </row>
-    <row r="44" spans="1:35" ht="76.5" customHeight="1">
+    <row r="44" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="61">
         <v>37</v>
       </c>
@@ -32335,7 +32847,7 @@
       </c>
       <c r="AI44" s="145"/>
     </row>
-    <row r="45" spans="1:35" ht="76.5" customHeight="1">
+    <row r="45" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="125">
         <v>38</v>
       </c>
@@ -32449,7 +32961,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="46" spans="1:35" ht="76.5" customHeight="1">
+    <row r="46" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="61">
         <v>39</v>
       </c>
@@ -32561,7 +33073,7 @@
       </c>
       <c r="AI46" s="145"/>
     </row>
-    <row r="47" spans="1:35" ht="76.5" customHeight="1">
+    <row r="47" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="125">
         <v>40</v>
       </c>
@@ -32673,7 +33185,7 @@
       </c>
       <c r="AI47" s="145"/>
     </row>
-    <row r="48" spans="1:35" ht="76.5" customHeight="1">
+    <row r="48" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="61">
         <v>41</v>
       </c>
@@ -32785,7 +33297,7 @@
       </c>
       <c r="AI48" s="145"/>
     </row>
-    <row r="49" spans="1:35" ht="76.5" customHeight="1">
+    <row r="49" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="125">
         <v>42</v>
       </c>
@@ -32899,7 +33411,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="50" spans="1:35" ht="76.5" customHeight="1">
+    <row r="50" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="61">
         <v>43</v>
       </c>
@@ -33011,7 +33523,7 @@
       </c>
       <c r="AI50" s="145"/>
     </row>
-    <row r="51" spans="1:35" ht="76.5" customHeight="1">
+    <row r="51" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="125">
         <v>44</v>
       </c>
@@ -33123,7 +33635,7 @@
       </c>
       <c r="AI51" s="145"/>
     </row>
-    <row r="52" spans="1:35" ht="76.5" customHeight="1">
+    <row r="52" spans="1:35" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="61">
         <v>45</v>
       </c>
@@ -33239,6 +33751,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N4:P4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="A1:AH1"/>
@@ -33255,45 +33768,44 @@
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <conditionalFormatting sqref="AB8:AB52 AE8:AE52">
-    <cfRule type="cellIs" dxfId="35" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC8:AC52 Z8:Z52">
-    <cfRule type="cellIs" dxfId="34" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG8:AG52">
-    <cfRule type="cellIs" dxfId="33" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>500</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H52 K8:K52 Q8:Q52">
-    <cfRule type="cellIs" dxfId="32" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:P52 J8:J52 S8:S52 M8:M52">
-    <cfRule type="cellIs" dxfId="31" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N52">
-    <cfRule type="cellIs" dxfId="30" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8:T52">
-    <cfRule type="cellIs" dxfId="29" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8:V52">
-    <cfRule type="cellIs" dxfId="28" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33306,14 +33818,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="6" width="27.109375" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" customWidth="1"/>
@@ -33323,131 +33835,131 @@
     <col min="32" max="32" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="70.5" customHeight="1">
-      <c r="A1" s="160" t="s">
+    <row r="1" spans="1:32" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="160"/>
-      <c r="W1" s="160"/>
-      <c r="X1" s="160"/>
-      <c r="Y1" s="160"/>
-      <c r="Z1" s="160"/>
-      <c r="AA1" s="160"/>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="160"/>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="160"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="162"/>
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="162"/>
+      <c r="T1" s="162"/>
+      <c r="U1" s="162"/>
+      <c r="V1" s="162"/>
+      <c r="W1" s="162"/>
+      <c r="X1" s="162"/>
+      <c r="Y1" s="162"/>
+      <c r="Z1" s="162"/>
+      <c r="AA1" s="162"/>
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="162"/>
+      <c r="AD1" s="162"/>
+      <c r="AE1" s="162"/>
+      <c r="AF1" s="162"/>
     </row>
-    <row r="2" spans="1:32" ht="70.5" customHeight="1">
-      <c r="A2" s="160" t="s">
+    <row r="2" spans="1:32" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="160"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="160"/>
-      <c r="U2" s="160"/>
-      <c r="V2" s="160"/>
-      <c r="W2" s="160"/>
-      <c r="X2" s="160"/>
-      <c r="Y2" s="160"/>
-      <c r="Z2" s="160"/>
-      <c r="AA2" s="160"/>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="160"/>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="160"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="162"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
+      <c r="U2" s="162"/>
+      <c r="V2" s="162"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="162"/>
+      <c r="Y2" s="162"/>
+      <c r="Z2" s="162"/>
+      <c r="AA2" s="162"/>
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="162"/>
+      <c r="AD2" s="162"/>
+      <c r="AE2" s="162"/>
+      <c r="AF2" s="162"/>
     </row>
-    <row r="3" spans="1:32" ht="70.5" customHeight="1">
-      <c r="A3" s="155" t="s">
+    <row r="3" spans="1:32" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="152" t="s">
         <v>504</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="155"/>
-      <c r="S3" s="155"/>
-      <c r="T3" s="155"/>
-      <c r="U3" s="155"/>
-      <c r="V3" s="155"/>
-      <c r="W3" s="155"/>
-      <c r="X3" s="155"/>
-      <c r="Y3" s="155"/>
-      <c r="Z3" s="155"/>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="155"/>
-      <c r="AC3" s="155"/>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="155"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="152"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="152"/>
+      <c r="R3" s="152"/>
+      <c r="S3" s="152"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="152"/>
+      <c r="AA3" s="152"/>
+      <c r="AB3" s="152"/>
+      <c r="AC3" s="152"/>
+      <c r="AD3" s="152"/>
+      <c r="AE3" s="152"/>
+      <c r="AF3" s="152"/>
     </row>
-    <row r="4" spans="1:32" ht="101.25" customHeight="1">
-      <c r="A4" s="156" t="s">
+    <row r="4" spans="1:32" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="153" t="s">
         <v>499</v>
       </c>
-      <c r="E4" s="158" t="s">
+      <c r="E4" s="155" t="s">
         <v>508</v>
       </c>
-      <c r="F4" s="158" t="s">
+      <c r="F4" s="155" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="52" t="s">
@@ -33468,21 +33980,21 @@
       </c>
       <c r="O4" s="150"/>
       <c r="P4" s="150"/>
-      <c r="Q4" s="151" t="s">
+      <c r="Q4" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="152"/>
-      <c r="S4" s="153"/>
+      <c r="R4" s="158"/>
+      <c r="S4" s="159"/>
       <c r="T4" s="150" t="s">
         <v>37</v>
       </c>
       <c r="U4" s="150"/>
       <c r="V4" s="150"/>
-      <c r="W4" s="151" t="s">
+      <c r="W4" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="X4" s="152"/>
-      <c r="Y4" s="153"/>
+      <c r="X4" s="158"/>
+      <c r="Y4" s="159"/>
       <c r="Z4" s="150" t="s">
         <v>505</v>
       </c>
@@ -33501,13 +34013,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="38.25" customHeight="1">
-      <c r="A5" s="156"/>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
+    <row r="5" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="153"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
       <c r="G5" s="52"/>
       <c r="H5" s="41" t="s">
         <v>6</v>
@@ -33577,13 +34089,13 @@
       <c r="AE5" s="16"/>
       <c r="AF5" s="16"/>
     </row>
-    <row r="6" spans="1:32" ht="38.25" customHeight="1">
-      <c r="A6" s="156"/>
-      <c r="B6" s="156"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
+    <row r="6" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="153"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
       <c r="G6" s="52" t="s">
         <v>2</v>
       </c>
@@ -33667,13 +34179,13 @@
       <c r="AE6" s="17"/>
       <c r="AF6" s="17"/>
     </row>
-    <row r="7" spans="1:32" ht="15.6">
-      <c r="A7" s="157"/>
-      <c r="B7" s="157"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
+    <row r="7" spans="1:32" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="154"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
       <c r="G7" s="53" t="s">
         <v>3</v>
       </c>
@@ -33733,7 +34245,7 @@
       <c r="AE7" s="20"/>
       <c r="AF7" s="20"/>
     </row>
-    <row r="8" spans="1:32" ht="113.25" customHeight="1">
+    <row r="8" spans="1:32" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="90">
         <v>1</v>
       </c>
@@ -33836,7 +34348,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="113.25" customHeight="1">
+    <row r="9" spans="1:32" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="90">
         <v>2</v>
       </c>
@@ -33937,7 +34449,7 @@
       </c>
       <c r="AF9" s="65"/>
     </row>
-    <row r="15" spans="1:32" ht="226.5" customHeight="1">
+    <row r="15" spans="1:32" ht="226.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="167" t="s">
         <v>600</v>
       </c>
@@ -33975,6 +34487,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q4:S4"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="A15:AF15"/>
@@ -33991,55 +34504,54 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
   </mergeCells>
   <conditionalFormatting sqref="Y8:Y9 AB8:AB9">
-    <cfRule type="cellIs" dxfId="27" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD8:AD9">
-    <cfRule type="cellIs" dxfId="26" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>500</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8:W9 Z8:Z9 T8:T9">
-    <cfRule type="cellIs" dxfId="25" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H9 K8:K9 N8:N9 Q8:Q9">
-    <cfRule type="cellIs" dxfId="24" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8:V9">
-    <cfRule type="cellIs" dxfId="23" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:P9">
-    <cfRule type="cellIs" dxfId="22" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:S9">
-    <cfRule type="cellIs" dxfId="21" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J9">
-    <cfRule type="cellIs" dxfId="20" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M9">
-    <cfRule type="cellIs" dxfId="19" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I9">
-    <cfRule type="cellIs" dxfId="18" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34049,14 +34561,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF58"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="30.44140625" customWidth="1"/>
@@ -34072,7 +34584,7 @@
     <col min="32" max="32" width="70.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="63.75" customHeight="1">
+    <row r="1" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="168" t="s">
         <v>19</v>
       </c>
@@ -34108,7 +34620,7 @@
       <c r="AE1" s="168"/>
       <c r="AF1" s="168"/>
     </row>
-    <row r="2" spans="1:32" ht="63.75" customHeight="1">
+    <row r="2" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="168" t="s">
         <v>21</v>
       </c>
@@ -34144,7 +34656,7 @@
       <c r="AE2" s="168"/>
       <c r="AF2" s="168"/>
     </row>
-    <row r="3" spans="1:32" ht="63.75" customHeight="1">
+    <row r="3" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="170" t="s">
         <v>486</v>
       </c>
@@ -34180,23 +34692,23 @@
       <c r="AE3" s="170"/>
       <c r="AF3" s="170"/>
     </row>
-    <row r="4" spans="1:32" ht="181.5" customHeight="1">
-      <c r="A4" s="156" t="s">
+    <row r="4" spans="1:32" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="153" t="s">
         <v>499</v>
       </c>
-      <c r="E4" s="158" t="s">
+      <c r="E4" s="155" t="s">
         <v>508</v>
       </c>
-      <c r="F4" s="158" t="s">
+      <c r="F4" s="155" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -34250,13 +34762,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="39" customHeight="1">
-      <c r="A5" s="156"/>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
+    <row r="5" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="153"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
       <c r="G5" s="5"/>
       <c r="H5" s="7" t="s">
         <v>6</v>
@@ -34326,13 +34838,13 @@
       <c r="AE5" s="5"/>
       <c r="AF5" s="37"/>
     </row>
-    <row r="6" spans="1:32" ht="39" customHeight="1">
-      <c r="A6" s="156"/>
-      <c r="B6" s="156"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
+    <row r="6" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="153"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
       <c r="G6" s="126" t="s">
         <v>2</v>
       </c>
@@ -34415,13 +34927,13 @@
       <c r="AE6" s="4"/>
       <c r="AF6" s="25"/>
     </row>
-    <row r="7" spans="1:32" ht="39" customHeight="1">
-      <c r="A7" s="157"/>
-      <c r="B7" s="157"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
+    <row r="7" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="154"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
       <c r="G7" s="128" t="s">
         <v>3</v>
       </c>
@@ -34481,7 +34993,7 @@
       <c r="AE7" s="6"/>
       <c r="AF7" s="38"/>
     </row>
-    <row r="8" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="8" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="61">
         <v>1</v>
       </c>
@@ -34588,7 +35100,7 @@
       </c>
       <c r="AF8" s="65"/>
     </row>
-    <row r="9" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="9" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="61">
         <v>2</v>
       </c>
@@ -34695,7 +35207,7 @@
       </c>
       <c r="AF9" s="65"/>
     </row>
-    <row r="10" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="10" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="61">
         <v>3</v>
       </c>
@@ -34804,7 +35316,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="11" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="61">
         <v>4</v>
       </c>
@@ -34911,7 +35423,7 @@
       </c>
       <c r="AF11" s="65"/>
     </row>
-    <row r="12" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="12" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="61">
         <v>5</v>
       </c>
@@ -35020,7 +35532,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="13" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="13" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="61">
         <v>6</v>
       </c>
@@ -35127,7 +35639,7 @@
       </c>
       <c r="AF13" s="65"/>
     </row>
-    <row r="14" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="14" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="61">
         <v>7</v>
       </c>
@@ -35234,7 +35746,7 @@
       </c>
       <c r="AF14" s="65"/>
     </row>
-    <row r="15" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="15" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="61">
         <v>8</v>
       </c>
@@ -35341,7 +35853,7 @@
       </c>
       <c r="AF15" s="65"/>
     </row>
-    <row r="16" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="16" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="61">
         <v>9</v>
       </c>
@@ -35448,7 +35960,7 @@
       </c>
       <c r="AF16" s="65"/>
     </row>
-    <row r="17" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="17" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="61">
         <v>10</v>
       </c>
@@ -35555,7 +36067,7 @@
       </c>
       <c r="AF17" s="65"/>
     </row>
-    <row r="18" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="18" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="61">
         <v>11</v>
       </c>
@@ -35662,7 +36174,7 @@
       </c>
       <c r="AF18" s="65"/>
     </row>
-    <row r="19" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="19" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="61">
         <v>12</v>
       </c>
@@ -35769,7 +36281,7 @@
       </c>
       <c r="AF19" s="65"/>
     </row>
-    <row r="20" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="20" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="61">
         <v>13</v>
       </c>
@@ -35876,7 +36388,7 @@
       </c>
       <c r="AF20" s="65"/>
     </row>
-    <row r="21" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="21" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="61">
         <v>14</v>
       </c>
@@ -35983,7 +36495,7 @@
       </c>
       <c r="AF21" s="65"/>
     </row>
-    <row r="22" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="22" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="61">
         <v>15</v>
       </c>
@@ -36090,7 +36602,7 @@
       </c>
       <c r="AF22" s="65"/>
     </row>
-    <row r="23" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="23" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="61">
         <v>16</v>
       </c>
@@ -36197,7 +36709,7 @@
       </c>
       <c r="AF23" s="65"/>
     </row>
-    <row r="24" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="24" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="61">
         <v>17</v>
       </c>
@@ -36304,7 +36816,7 @@
       </c>
       <c r="AF24" s="65"/>
     </row>
-    <row r="25" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="25" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="61">
         <v>18</v>
       </c>
@@ -36411,7 +36923,7 @@
       </c>
       <c r="AF25" s="65"/>
     </row>
-    <row r="26" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="26" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="61">
         <v>19</v>
       </c>
@@ -36518,7 +37030,7 @@
       </c>
       <c r="AF26" s="65"/>
     </row>
-    <row r="27" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="27" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="61">
         <v>20</v>
       </c>
@@ -36625,7 +37137,7 @@
       </c>
       <c r="AF27" s="65"/>
     </row>
-    <row r="28" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="28" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="61">
         <v>21</v>
       </c>
@@ -36734,7 +37246,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="29" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="29" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="61">
         <v>22</v>
       </c>
@@ -36841,7 +37353,7 @@
       </c>
       <c r="AF29" s="65"/>
     </row>
-    <row r="30" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="30" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="61">
         <v>23</v>
       </c>
@@ -36948,7 +37460,7 @@
       </c>
       <c r="AF30" s="65"/>
     </row>
-    <row r="31" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="31" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="61">
         <v>24</v>
       </c>
@@ -37055,7 +37567,7 @@
       </c>
       <c r="AF31" s="65"/>
     </row>
-    <row r="32" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="32" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="61">
         <v>25</v>
       </c>
@@ -37164,7 +37676,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="33" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="33" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="61">
         <v>26</v>
       </c>
@@ -37271,7 +37783,7 @@
       </c>
       <c r="AF33" s="65"/>
     </row>
-    <row r="34" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="34" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="61">
         <v>27</v>
       </c>
@@ -37378,7 +37890,7 @@
       </c>
       <c r="AF34" s="65"/>
     </row>
-    <row r="35" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="35" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="61">
         <v>28</v>
       </c>
@@ -37487,7 +37999,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="36" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="36" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="61">
         <v>29</v>
       </c>
@@ -37594,7 +38106,7 @@
       </c>
       <c r="AF36" s="65"/>
     </row>
-    <row r="37" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="37" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="61">
         <v>30</v>
       </c>
@@ -37703,7 +38215,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="38" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="38" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61">
         <v>31</v>
       </c>
@@ -37810,7 +38322,7 @@
       </c>
       <c r="AF38" s="65"/>
     </row>
-    <row r="39" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="39" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="61">
         <v>32</v>
       </c>
@@ -37919,7 +38431,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="40" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="40" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="61">
         <v>33</v>
       </c>
@@ -38026,7 +38538,7 @@
       </c>
       <c r="AF40" s="65"/>
     </row>
-    <row r="41" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="41" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="61">
         <v>34</v>
       </c>
@@ -38135,7 +38647,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="42" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="42" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="61">
         <v>35</v>
       </c>
@@ -38244,7 +38756,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="43" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="43" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="61">
         <v>36</v>
       </c>
@@ -38351,7 +38863,7 @@
       </c>
       <c r="AF43" s="65"/>
     </row>
-    <row r="44" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="44" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="61">
         <v>37</v>
       </c>
@@ -38458,7 +38970,7 @@
       </c>
       <c r="AF44" s="65"/>
     </row>
-    <row r="45" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="45" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="61">
         <v>38</v>
       </c>
@@ -38565,7 +39077,7 @@
       </c>
       <c r="AF45" s="65"/>
     </row>
-    <row r="46" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="46" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="61">
         <v>39</v>
       </c>
@@ -38674,7 +39186,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="47" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="47" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="61">
         <v>40</v>
       </c>
@@ -38783,7 +39295,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="48" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="48" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="61">
         <v>41</v>
       </c>
@@ -38892,7 +39404,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="49" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="49" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="61">
         <v>42</v>
       </c>
@@ -38999,7 +39511,7 @@
       </c>
       <c r="AF49" s="65"/>
     </row>
-    <row r="50" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1">
+    <row r="50" spans="1:32" s="54" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="61">
         <v>43</v>
       </c>
@@ -39106,7 +39618,7 @@
       </c>
       <c r="AF50" s="65"/>
     </row>
-    <row r="51" spans="1:32" ht="74.25" customHeight="1">
+    <row r="51" spans="1:32" ht="74.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="61">
         <v>44</v>
       </c>
@@ -39215,7 +39727,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="52" spans="1:32" ht="74.25" customHeight="1">
+    <row r="52" spans="1:32" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="61">
         <v>45</v>
       </c>
@@ -39324,7 +39836,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="53" spans="1:32" ht="74.25" customHeight="1">
+    <row r="53" spans="1:32" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="61">
         <v>46</v>
       </c>
@@ -39431,7 +39943,7 @@
       </c>
       <c r="AF53" s="87"/>
     </row>
-    <row r="54" spans="1:32" ht="74.25" customHeight="1">
+    <row r="54" spans="1:32" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="61">
         <v>47</v>
       </c>
@@ -39540,7 +40052,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="55" spans="1:32" ht="74.25" customHeight="1">
+    <row r="55" spans="1:32" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="61">
         <v>48</v>
       </c>
@@ -39649,7 +40161,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="58" spans="1:32" ht="39.75" customHeight="1">
+    <row r="58" spans="1:32" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="169"/>
       <c r="C58" s="169"/>
       <c r="D58" s="169"/>
@@ -39657,6 +40169,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="A2:AF2"/>
@@ -39673,45 +40186,44 @@
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="E4:E7"/>
-    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J55 M8:M55 P8:P55">
-    <cfRule type="cellIs" dxfId="17" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N55 S8:S55">
-    <cfRule type="cellIs" dxfId="16" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8:T55 W8:W55">
-    <cfRule type="cellIs" dxfId="15" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8:V55 Y8:Y55">
-    <cfRule type="cellIs" dxfId="14" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8:Z55">
-    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8:AB55">
-    <cfRule type="cellIs" dxfId="12" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>75</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H55 K8:K55">
-    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:Q55">
-    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>18</formula>
     </cfRule>
   </conditionalFormatting>
